--- a/assets/loki.xlsx
+++ b/assets/loki.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Matérias 2 semestre\cdados\P1\Classificador_automatico_de_sentimentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Matérias 2 semestre\cdados\P1\Classificador_automatico_de_sentimentos\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7624AA-007F-4BD8-8E8D-0F2F455891C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE068E87-CA74-4A13-893C-1C958B4DB212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2074,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2096,873 +2096,1362 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>

--- a/assets/loki.xlsx
+++ b/assets/loki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Matérias 2 semestre\cdados\P1\Classificador_automatico_de_sentimentos\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE068E87-CA74-4A13-893C-1C958B4DB212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A127EE-F035-4482-9823-4BDA054CDCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,18 @@
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2074,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3400,685 +3411,1096 @@
       <c r="A165" t="s">
         <v>164</v>
       </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/assets/loki.xlsx
+++ b/assets/loki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Matérias 2 semestre\cdados\P1\Classificador_automatico_de_sentimentos\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A127EE-F035-4482-9823-4BDA054CDCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3002A0B1-9D2E-4B38-B42D-82F156E2A48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/loki.xlsx
+++ b/assets/loki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Matérias 2 semestre\cdados\P1\Classificador_automatico_de_sentimentos\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3002A0B1-9D2E-4B38-B42D-82F156E2A48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4357CF-97BE-4DAE-A716-C674DFDA75C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4510,1015 +4510,1624 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="167.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>501</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/assets/loki.xlsx
+++ b/assets/loki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Matérias 2 semestre\cdados\P1\Classificador_automatico_de_sentimentos\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4357CF-97BE-4DAE-A716-C674DFDA75C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE37921-B669-45B1-8E6E-FD633F1ED76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2164,7 +2164,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -2172,7 +2172,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2180,7 +2180,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -2212,7 +2212,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -2228,7 +2228,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2308,7 +2308,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -2324,7 +2324,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -2340,7 +2340,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -2372,7 +2372,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -2468,7 +2468,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -2508,7 +2508,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -2524,7 +2524,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -2580,7 +2580,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2604,7 +2604,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -2708,7 +2708,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2764,7 +2764,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2844,7 +2844,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -2860,7 +2860,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -2879,12 +2879,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="99" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -2892,7 +2892,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -3012,7 +3012,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -3044,7 +3044,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -3084,7 +3084,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -3092,7 +3092,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -3132,7 +3132,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -3164,7 +3164,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -3196,7 +3196,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -3204,7 +3204,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -3239,8 +3239,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+    <row r="144" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -3316,7 +3316,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -3332,7 +3332,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -3340,7 +3340,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -3356,7 +3356,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -3364,7 +3364,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -3372,7 +3372,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -3588,7 +3588,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
@@ -3636,7 +3636,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -3668,7 +3668,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -3692,7 +3692,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -3708,7 +3708,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
@@ -3756,7 +3756,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
@@ -3804,7 +3804,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
@@ -3812,7 +3812,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
@@ -3820,7 +3820,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -3868,7 +3868,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
@@ -3876,7 +3876,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
@@ -3900,7 +3900,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
@@ -3908,7 +3908,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
@@ -3916,7 +3916,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
@@ -3924,7 +3924,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -3996,7 +3996,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
@@ -4007,8 +4007,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
+    <row r="240" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B240">
@@ -4060,7 +4060,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
@@ -4068,7 +4068,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
@@ -4076,7 +4076,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
@@ -4188,7 +4188,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
@@ -4308,7 +4308,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
@@ -4396,7 +4396,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
@@ -4468,7 +4468,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
@@ -4500,7 +4500,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4512,7 +4512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A173" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>

--- a/assets/loki.xlsx
+++ b/assets/loki.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Matérias 2 semestre\cdados\P1\Classificador_automatico_de_sentimentos\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\CIÊNCIA_DE_DADOS\Classificador_de_sentimentos\Repositorio_certo\Classificador_automatico_de_sentimentos\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE37921-B669-45B1-8E6E-FD633F1ED76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F8A363-7577-46E7-BEE5-2DD0DD541C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="803">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1679,6 +1679,996 @@
   </si>
   <si>
     <t>Relevancia</t>
+  </si>
+  <si>
+    <t>vo acaba com os problema assistindo loki di novo</t>
+  </si>
+  <si>
+    <t>mano do céu, ontem comecei a jogar super animal royale e caralho que jogo viciante, fiquei umas 7 horas jogando sem parar, ja virou um dos meu jogos favoritos!</t>
+  </si>
+  <si>
+    <t>@gussooooooo arsenal jogou ontem loki</t>
+  </si>
+  <si>
+    <t>@xkledos quando acabar, já engata no loki e seja feliz</t>
+  </si>
+  <si>
+    <t>@loki_inluv eu tb, inferno</t>
+  </si>
+  <si>
+    <t>não faz sentido na série do loki ele não saber usar encantamento mental sendo que ele já tinha usado nos filmes sinceramente essa série é uma piada</t>
+  </si>
+  <si>
+    <t>@loki_inluv que bom, estou bem:)</t>
+  </si>
+  <si>
+    <t>@lalaxzyy @manoguuk obrigada amg</t>
+  </si>
+  <si>
+    <t>@nobre_caio kratos e assim como tyr, é conhecido em todas as mitologias como o fantasma de esparta e assassino de deuses. 
+odin de alguma forma iria capturar o atreus e separar kratos dele, atreus/loki iria crescer em asgard como "filho de odin" (pai de todos)..</t>
+  </si>
+  <si>
+    <t>dumblodore é gay e o loki é bi????????</t>
+  </si>
+  <si>
+    <t>@jb_ninguem @loki_trem ai mente</t>
+  </si>
+  <si>
+    <t>obra de @moopzies 
+#marvel #loki https://t.co/po8lmpmxgy</t>
+  </si>
+  <si>
+    <t>isso aqui é incesto          / isso aqui são versões do loki mas não são a mesma pessoa https://t.co/auepzymapo</t>
+  </si>
+  <si>
+    <t>@pombodopru @kkkkkkkkk0i00 @samuelmenor14 @rafaelfmsilva @peterjordan100 ou, mas e quanto ao final de loki? quando ele (loki) volta pra tva ao que parece ele já tem viajado entre o multiverso</t>
+  </si>
+  <si>
+    <t>@triplof na quesito "series" a dc é a melhor, exemplo: doom patrol, superman &amp;amp; lois, smallvile... a unica serie boa da marvel foi wandavision, a narrativa de falcao e o soldado invernal e loki é bem ruim</t>
+  </si>
+  <si>
+    <t>@pombodopru @peterjordan100 mas eles voltam nos anos 70 pra pegar o combustível com o hank pym novo e a jóia lá, e isso é consequência do loki ter fugido com o quadrado, logo ñ faria parte da linha do tempo sagrada</t>
+  </si>
+  <si>
+    <t>terminei de assistir loki 🤘</t>
+  </si>
+  <si>
+    <t>@yeltorix mas ele fica lindo sempre- mas entendo jskfhs mas não desiste ok.</t>
+  </si>
+  <si>
+    <t>o loki é tão inteligente passo mal</t>
+  </si>
+  <si>
+    <t>@riseredmarie em nenhum momento na série falaram de sylvie ter um irmão na realidade dela, loki e sylvie nao sao a mesma pessoa, variantes possuem o próprio mundo, a própria vida e o próprio universo, é completamente diferente, na série so infernizavam ela dizendo que “ela era um loki” pq+</t>
+  </si>
+  <si>
+    <t>@rsrssep @loki_trem aí mente</t>
+  </si>
+  <si>
+    <t>@asviage tem um site que eu via loki em 2k, te mandar</t>
+  </si>
+  <si>
+    <t>@loudnoise__fc @loki_trem @bakzinfx7 @loud_thurzin888 @bakzera quero, me mostra uma desse ano, por favor?</t>
+  </si>
+  <si>
+    <t>quem deixou o whatsapp do @loki_cb funcionando em dia de rpg? https://t.co/ttbdgz55rl</t>
+  </si>
+  <si>
+    <t>@cronicaschase o loki assim</t>
+  </si>
+  <si>
+    <t>@loki_bra melhor ator e melhor atriz</t>
+  </si>
+  <si>
+    <t>@tris_loki que no me falte jamaaaaas</t>
+  </si>
+  <si>
+    <t>thor e loki brigando  e nada do véio acordar</t>
+  </si>
+  <si>
+    <t>@promohqs mds ainda tô me recuperando do quiz do loki #promohqsparty</t>
+  </si>
+  <si>
+    <t>eu tô assistindo #loki de novo aaaaaaa 💚💚💚💚💚💚💚💚</t>
+  </si>
+  <si>
+    <t>@melhornao777 @loki_trem @bakzinfx7 @loud_thurzin888 @bakzera a nfa que teu time pipocou com sempre, copa nobru do dono da org de vcs que passou vergonha pq o próprio time ganhou nem la copa, esse mermo kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@vandamepappylon mais não é vdd e isso que o loki diria</t>
+  </si>
+  <si>
+    <t>rapaziada esse negócio de ter 3 tom holland não faz sentido pq no loki as variações são completamente diferentes</t>
+  </si>
+  <si>
+    <t>que loki feio https://t.co/hmy56toayj</t>
+  </si>
+  <si>
+    <t>(+) ele não tem todas as respostas, que os esquemas dele não funcionam bem pq o mobius conhece ele e não se deixa manipular e pensando que os "fãs" q dizem q a série estragou o loki reclamam exatamente dessas coisas, q ele não se impôs, q ele não tinha autoridade sobre os outros</t>
+  </si>
+  <si>
+    <t>sou o loki
+e nao ironicamente it makes some sense https://t.co/weozlvltzm https://t.co/kczutafvoa</t>
+  </si>
+  <si>
+    <t>@puddingarts kwnekkaahak só faço se me der sub no casal do cellbit</t>
+  </si>
+  <si>
+    <t>@geovana_rodria eu tb fiquei assim kkkkk, queria ser o loki</t>
+  </si>
+  <si>
+    <t>personagem: loki
+voz: christiano torreão https://t.co/cuslmz4vny</t>
+  </si>
+  <si>
+    <t>eu to mais ansiosa pra ver o traje novo da sylvie do que pelo desenvolvimento da 2 temporada de loki em si kkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@melhornao777 @loki_trem @bakzinfx7 @loud_thurzin888 @bakzera claro, de lbr a gente tem de sobra, la copa, nfa de todos os tipos, ai calicaaaaa</t>
+  </si>
+  <si>
+    <t>não mas parece q hj tudo decidiu acontecer com o meu piercing pq o loki acabou me dar uma unhada me arranhando todinha e bem no meu peito</t>
+  </si>
+  <si>
+    <t>@loki_inluv queria porém não quero sair de casa, vou sair do grupo</t>
+  </si>
+  <si>
+    <t>loki é mt chato pqp n cala essa boca fica o dia todo esse inferno</t>
+  </si>
+  <si>
+    <t>@loudnoise__fc @loki_trem @bakzinfx7 @loud_thurzin888 @bakzera eu sei queridx, eu acompanhava o cenário muito antes de noite ser criada, thur só jogava em live com o elo, e você nem sonhava em saber quem ele é. enfim, fala uma nfa, ou melhor um título seu meu cpt aí 💜</t>
+  </si>
+  <si>
+    <t>eu com o loki tony e daisy https://t.co/mapuzicth6</t>
+  </si>
+  <si>
+    <t>"será que o que faz de um loki um loki, é que estamos destinados a perder?"</t>
+  </si>
+  <si>
+    <t>@wabethernal7 conforta?</t>
+  </si>
+  <si>
+    <t>@i4ryuk @temcheirin l i t e r a l m e n t e
+o loki é foda</t>
+  </si>
+  <si>
+    <t>a pior parte de parte de ver ele é ter que ficar falando de loki pelo amor de deus ne</t>
+  </si>
+  <si>
+    <t>@isseizenho eita eu tinha mais 2 gatos e um tinha o nome de loki e romeu skskskakaka, como descobriu skskskkzkz.. então eu fico zoando, falando que vou fritar ele💕 🤡ksksksjsskss</t>
+  </si>
+  <si>
+    <t>eu com o loki https://t.co/lhrpt6ezlj</t>
+  </si>
+  <si>
+    <t>@melhornao777 @loki_trem @bakzinfx7 @loud_thurzin888 @bakzera nera vc que não ia perder mais seu tempo?? puts kkk</t>
+  </si>
+  <si>
+    <t>@marvxlstan loki,tony e nat,fiquei empatada com os três https://t.co/mfjmgp7xbh</t>
+  </si>
+  <si>
+    <t>comecei a assistir loki,tô um pouco perdido</t>
+  </si>
+  <si>
+    <t>@positionyoo n amg é que tipo, realmente não faz sentido falar que sylvie e loki são irmãos pq em tese o irmão de loki é thor e sylvie é variante de loki. n tem embasamento acharem q eles são irmãos kkkkk então td bem shippar os dois</t>
+  </si>
+  <si>
+    <t>@melhornao777 @loki_trem @bakzinfx7 @loud_thurzin888 @bakzera e só ganha uma lbr e x4, foda kkkk</t>
+  </si>
+  <si>
+    <t>pior qnd vc consegue entender todos os lados da história daí vc fica "mds do céu fudeu tudo mas eu entendo a sylvie por querer matar o cara mas eu tbm entendo o cara por fazer oq fez e eu entendo o loki tbm por não querer matar o cara" 🤯🤯</t>
+  </si>
+  <si>
+    <t>sonhei que estava pegando o celular para responder a nayme, aí quando vê eu acordei para responder o @ 😱 culpa do loki certo, wanda eu passo pano kkk</t>
+  </si>
+  <si>
+    <t>loki é lindo dms sem or</t>
+  </si>
+  <si>
+    <t>@giovanna_lungo fiquei travado em loki, aí agr ainda tô meio em dúvida de b99 ou lúcifer</t>
+  </si>
+  <si>
+    <t>@littlefenom loki é o irmão do thor
+🗡️🗡️🗡️🗡️🗡️</t>
+  </si>
+  <si>
+    <t>@pombodopru @peterjordan100 mas mostraram, dá uma olhada no pós creditos de loki</t>
+  </si>
+  <si>
+    <t>@lucasipl183 @cartumante já imaginou colocarem o loki como filho do kratos? se fizerem isso vai ser o cúmulo do desrespeito pra mitologia</t>
+  </si>
+  <si>
+    <t>por onde anda o loki? sdds do loki!! um beijo pro loki&amp;lt;3</t>
+  </si>
+  <si>
+    <t>@loki_ngidol @aswinsubarkah @eno_bening eno atletis?</t>
+  </si>
+  <si>
+    <t>@sylvielaufeydit @bracinhodeferro sylvie se fosse pra escolher entre casar com o thor e o loki quem vc escolheria? @mariaclaragill1</t>
+  </si>
+  <si>
+    <t>@cacaraujo2002 @promohqs postou a foto verdadeira e perdeu o encanto, nesse tempo todo achei que você era o loki 😔🙏</t>
+  </si>
+  <si>
+    <t>próxima temporada de loki deve rolar dominação avt em outras avts
+invasão de linhas do tempo alternativas
+ravona indo atrás do kang no passado pra restaurar a linha do tempo...
+será que vai aparecer alguém que a gente já viu nos filmes 
+ pra se aliar ao loki?
+#loki #thor</t>
+  </si>
+  <si>
+    <t>@matosx_ o q vc acha que ele podia ter feito dps disso tudo? tem que ser algo específico, nada de não sei, e salvar tony, natasha, braço do bruce está fora de questão, volte 4 casas, assista loki e todos os "what ifs" para continuar no jogo</t>
+  </si>
+  <si>
+    <t>@loki_bra o susto kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@gus_ttavoo nossa essa gossip girl eu achei uma chatice, não consegui passar de 4 episódios. igual loki, vi 3 e que chatice meu deus do céu</t>
+  </si>
+  <si>
+    <t>eu tendo o mesmo mbti e enneagram do loki-- https://t.co/7zoiwosqzm</t>
+  </si>
+  <si>
+    <t>cheguei no predio soq fui traido pelo ator q faz loki, o filho da puta tentou me joga de la de cima cuzao, eu tava armado e atirei nos dois joelhos  dele e joguei ele pros zumbis, ai tinha coisa pa porra no predio, só no meu apartamento tinha pique um mercado. fiz a festa e cabo</t>
+  </si>
+  <si>
+    <t>@ghl01lisa omg o meu se chama loki</t>
+  </si>
+  <si>
+    <t>@tomlovesjill ele é igual o loki, nunca muda</t>
+  </si>
+  <si>
+    <t>@apollozin333 @loki_trem @robertpdm @yurixl15 @daaygamer @cacauzinha_ff né mano</t>
+  </si>
+  <si>
+    <t>@buckyhair_ loki e até q foi bem dividido https://t.co/5rd8t5lwsp</t>
+  </si>
+  <si>
+    <t>@melhornao777 @loki_trem @bakzinfx7 @loud_thurzin888 @bakzera não tô falando que ta errado bb, tô falando que você quer falar tanto de escrita e bota uma palavra informal no meio, coragem kkkkkk</t>
+  </si>
+  <si>
+    <t>@softhiddlexs o meu deu loki nunca fui triste https://t.co/zxaapskhfe</t>
+  </si>
+  <si>
+    <t>como é que faz pra falar com loki pra alinhar a linha do tempo?</t>
+  </si>
+  <si>
+    <t>e não é que a moça ficou interessante msm? acho que daria uma boa lady loki
+#loki
+#lokifanart https://t.co/f2efq5vk5j https://t.co/tqgnnqt9wz</t>
+  </si>
+  <si>
+    <t>@thirlwallcrf aceita gatos? pensando em doar loki e diana não aguento mais eles (n deixa eles lerem esse tweet</t>
+  </si>
+  <si>
+    <t>@melhornao777 @loki_trem @bakzinfx7 @loud_thurzin888 @bakzera os cara mal jogaram camp esse ano e tu quer falar merda po kkkkkkl</t>
+  </si>
+  <si>
+    <t>mds eu esqueci véi</t>
+  </si>
+  <si>
+    <t>@m1kefrog eu sou mais loki do que você hehehe</t>
+  </si>
+  <si>
+    <t>fico pensando que as brincadeiras que eu tenho com o loki, agora são de boa, mas quando ele tiver quase um metro e meio de comprimento, vou me arrepender 🙂</t>
+  </si>
+  <si>
+    <t>to muito orgulhoso do meu dia e como rendeu
+acordei as 6:45 - fui pro curso de espanhol
+cheguei fui na feira comprar as comidinhas saudáveis da semana. fui pra academia depois, voltei lavei a cozinha, depois levei loki pra tomar banho ufa agora descansar</t>
+  </si>
+  <si>
+    <t>eu sou uma deusa, criatura ridícula. 
+(variante brasileira do loki) https://t.co/ht598fyoi8</t>
+  </si>
+  <si>
+    <t>@minipasquier meu deus kid agora vc eh loki que pavor</t>
+  </si>
+  <si>
+    <t>o loki beijou a loki mulher</t>
+  </si>
+  <si>
+    <t>⚡ quiz loki #promohqsparty
+pergunta 10: qual meio de transporte mobius sonha em pilotar? 
+✅os 3 primeiros que responderem corretamente pontuam. quem terminar com mais pontos ganha a hq vote loki. veja a pontuação abaixo. https://t.co/fmxudryw2z</t>
+  </si>
+  <si>
+    <t>@mikeymarginal eu so assisti pelo loki</t>
+  </si>
+  <si>
+    <t>@yuri_0_porteiro @puddingarts eu tava assim</t>
+  </si>
+  <si>
+    <t>@dazchilde eu vejo o lado bom 75% stark e 70% loki</t>
+  </si>
+  <si>
+    <t>mds agr tem q explicar que o loki e a sylvie n são irmãos e nem tem os mesmos pais pq são de timelines diferentes</t>
+  </si>
+  <si>
+    <t>marcações: @kthyllua @lovsstaehys2 @loki_inluv @mmothermercury @jenlirio @pyoustyles @taehyflay @i4koocat @whyjkth @i4mono @jeonlevi4than @voirpkjm @jjktl4ntic @littleangels7_ @pacifckth @euphoriavy @jeonspalette_ @sugacrap @sollarmy_sol @y8giz @moniravenel @ifshase</t>
+  </si>
+  <si>
+    <t>e se eu comprar um boneco do loki em tamanho real?</t>
+  </si>
+  <si>
+    <t>@promohqs @cacaraujo2002 o loki venceu</t>
+  </si>
+  <si>
+    <t>@naoepaloma o nomezinho eh loki</t>
+  </si>
+  <si>
+    <t>apesar de eu amar a marvel, ainda n terminei wandavision, loki e nunca assisti deadpool
+tudo isso por preguiça 🙌</t>
+  </si>
+  <si>
+    <t>@starsfromwndr @lovavengers tony vai se juntar a gamora e o loki de ragnarok para brigar tmb. aí vai formar a guerra dos defuntos</t>
+  </si>
+  <si>
+    <t>@moonychaser fonte: vem aí loki season 2</t>
+  </si>
+  <si>
+    <t>loki está na minha crise existencial</t>
+  </si>
+  <si>
+    <t>médico: sr laufeyson qual o seu tipo?
+loki: loira... 1,70... olhos azuis... sobrenome laufeydottir...minha variante e alma gêmea...
+sylvie: *corada* tipo sanguíneo loki
+loki: aaa bom... vermelho??? 
+médico: ...
+kid loki: quer saber? deixa morrer msm</t>
+  </si>
+  <si>
+    <t>@obrienproject_ a kate é mais popular que o sam e o buck
+talvez não tanto quanto o loki e wanda
+mas a atriz, já tinha uma grande gama de fãs ativos e engajados
+fora a conexão com viúva negra
+ent n me surpreendo</t>
+  </si>
+  <si>
+    <t>o loki é tão fofinho 😕 amo o meu bebê</t>
+  </si>
+  <si>
+    <t>@datrueee @mao77sem @dvszinx9 @kayky9rs @wtfsnath fala ai man</t>
+  </si>
+  <si>
+    <t>eu aqui assistindo a série do #loki junto da minha mãe. 
+eu acho que minha mãe tem uma queda pelo loki.</t>
+  </si>
+  <si>
+    <t>@mackieser a energia de loki e tony iguais kkkkkkkkkkkkk eu não aguento</t>
+  </si>
+  <si>
+    <t>a série toda esperando o loki beijar ele mesmo versão loira sou muito cadelinha de um romancinho</t>
+  </si>
+  <si>
+    <t>@emmalazarotti o cap o loki e o clint mais perfeito impossível</t>
+  </si>
+  <si>
+    <t>@fc_jjordan @pain_krzn @cacauzinha_ff @fluxo_alemaze tão falando</t>
+  </si>
+  <si>
+    <t>tomara que o loki esteja em multiverse of madness msm pq se eu tiver que esperar até a segunda temporada da série pra matar a saudade dele eu me mato antes
+ https://t.co/ze6zttmc8a</t>
+  </si>
+  <si>
+    <t>@lllrieieiei @loki_trem ue, não e a maior torcida do ff???? mts torcedores enche a boca falando de audiência quando a loud ta jogando kkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@lcm12422226 sim aqueles primo chato 
+e o loki meu namo</t>
+  </si>
+  <si>
+    <t>@loki_trem @pain_krzn @fc_jjordan @cacauzinha_ff @fluxo_alemaze não, não pode ter nenhum tipo de relacionamento cm qualquer pessoa da org 🤦🏻</t>
+  </si>
+  <si>
+    <t>@loki_inluv nao bea</t>
+  </si>
+  <si>
+    <t>demorou mas finalmente tô assistindo loki</t>
+  </si>
+  <si>
+    <t>te amo loki de terno preto eu te amo</t>
+  </si>
+  <si>
+    <t>@pulsatrixstudio joão</t>
+  </si>
+  <si>
+    <t>@pnettobh @melanciacomics @olhardigital sim, até faz sentido midgard , asgarda e tals, mas mudar personagens de posição tipo parentescos é bem zuado, tipo na história real hella é filha do loki e não filha de odin como nos filmes</t>
+  </si>
+  <si>
+    <t>jack o estripador, enganou até mesmo loki o deus da trapaça</t>
+  </si>
+  <si>
+    <t>até hoje não assisti o último episódio de loki</t>
+  </si>
+  <si>
+    <t>eu já não entendia mt bem a coisa de viagem do tempo em ultimato agora depois de terminar loki eu entendi menos</t>
+  </si>
+  <si>
+    <t>@tris_loki banda</t>
+  </si>
+  <si>
+    <t>@melhornao777 @loki_trem @bakzinfx7 @loud_thurzin888 @bakzera pq cês ja jogaram uns 91937483920203 camp e até agora só ganharam um, lbr ainda mais kkkk</t>
+  </si>
+  <si>
+    <t>“vou assistir só dois ep de loki” tô no último 🤡</t>
+  </si>
+  <si>
+    <t>qual foi a primeira coisa que thanos estalou?
+o pescoço de loki😢</t>
+  </si>
+  <si>
+    <t>@loki_trem @fandomfx @robertpdm @yurixl15 @daaygamer @cacauzinha_ff o cara tá certo,  tá cheio de juízes na internet</t>
+  </si>
+  <si>
+    <t>@benuron_ @beatriz__asf xiu nao quero saber de vocês o importante é o loki (que esta vivo)</t>
+  </si>
+  <si>
+    <t>@pain_krzn @fc_jjordan @cacauzinha_ff @fluxo_alemaze claro que pode kkk</t>
+  </si>
+  <si>
+    <t>@flleurdellacour best eu te entendo...eu me apaixonei pelo loki</t>
+  </si>
+  <si>
+    <t>eu li loki disfarçado de zeca pagodinho https://t.co/sde3brygj7</t>
+  </si>
+  <si>
+    <t>"a série foi ruim"
+"a série foi mal escrita"
+"o loki tá ooc"
+aham cláudia, senta lá https://t.co/2m3n4gd1fm</t>
+  </si>
+  <si>
+    <t>@fc_jjordan @md7xzn @loki_trem @pain_krzn @cacauzinha_ff @fluxo_alemaze ela namora o yuri '-'</t>
+  </si>
+  <si>
+    <t>é isso galera! com 7 acertos @cacaraujo2002 vence o quiz e ganha a hq vote loki no #promohqsparty 🎉 https://t.co/fmxudryw2z https://t.co/12rgwe6wi4</t>
+  </si>
+  <si>
+    <t>meu deus véi, terminei loki e pqppppppp</t>
+  </si>
+  <si>
+    <t>a série justamente por isso, pq foi uma dinâmica totalmente nova que deixou o loki mais humilde e adicionou ainda mais profundidade ao personagem</t>
+  </si>
+  <si>
+    <t>@igormirandasite tenho a trilha sonora em cassete.</t>
+  </si>
+  <si>
+    <t>@kkkkkkkkk0i00 @peterjordan100 a avt, assim como o templo do kang, ficam fora do espaço-tempo, o multiverso só foi liberado pela silvye lá no final da temporada, depois do loki ser capturado e, consequentemente, depois da cena que ele foge. o multiverso não estava liberado naquele momento.</t>
+  </si>
+  <si>
+    <t>segundo meus amigos meu gosto p homem eh mt previsível todos sabiam que eu ia gamar no loki e no homem de ferro</t>
+  </si>
+  <si>
+    <t>@littlefenom mas tu falou loki no tweet ! https://t.co/oxzlccxpvv</t>
+  </si>
+  <si>
+    <t>@sidin_crf @disneyplusbr única série q terá 2a temporada é loki</t>
+  </si>
+  <si>
+    <t>@srtalaiscosta queria que o meu desse loki</t>
+  </si>
+  <si>
+    <t>@matosx_ tentar fazer o que? a missão acabou, ele ficou sozinho, já tinha servido o suficiente, tinha ido prestar condolências pros amigos e pela família do tony, foi entegar as jóias de volta, e n tinha mais nada pra fazer, se vc viu loki, vc tem noção</t>
+  </si>
+  <si>
+    <t>@sashckerman quem prestou atenção no primeiro filme do thor, vê que loki sempre sentiu amor pelo irmão, que não queria o trono, e que se sentia um monstro.
+ele sempre foi o que está na série. só o pessoal q não enxergou isso.
+a única diferença é que na série ele tá apaixonado.</t>
+  </si>
+  <si>
+    <t>o loki nao gosta que eu limpe a caixa de areia dele</t>
+  </si>
+  <si>
+    <t>@yeltorix mas seu traço é lindo, darling.</t>
+  </si>
+  <si>
+    <t>o universo depois de loki: https://t.co/wvx3bs17lh</t>
+  </si>
+  <si>
+    <t>@kkkkkkkkk0i00 @peterjordan100 provavelmente outra coisa faria eles voltarem, mas o loki fez antes, sendo assim, ele era uma variante e eles não.</t>
+  </si>
+  <si>
+    <t>@7delo horríveis kkkkkkkkkkkkkkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@fentwd não tô vendo loki</t>
+  </si>
+  <si>
+    <t>tá chato já seguir a tag loki o tempo todo é shipp e nada contra o shipp em si mas parece agora que o loki se resume a isso cade quem realmente ama o loki além de shipp</t>
+  </si>
+  <si>
+    <t>@loki_bra melhor atriz melhor ator e melhor trilga sonora efeitos visuais</t>
+  </si>
+  <si>
+    <t>@knjgoths não, acho borrachudo</t>
+  </si>
+  <si>
+    <t>eu percebo que eu nao tenho preferência nenhuma a partir do momento que eu vejo alguem no tiktok fazendo cosplay de loki eu acho ela atraente na hora</t>
+  </si>
+  <si>
+    <t>ver foto de loki filhote me dá altos gatilhos pois sinto tanta vontade de pegar outro doguinho 🤏🥺</t>
+  </si>
+  <si>
+    <t>owen wilson (cujo nome do personagem esqueci) e loki https://t.co/wfg4ecunjh</t>
+  </si>
+  <si>
+    <t>hoje eu ia pintar a unha, assistir a live da gabi, fazer resumo, lavar o cabelo, ler meu livro e assistir loki com minha mãe
+agora eu só vou ficar na porra do resumo porque ninguém me avisou qhe a gente vai sair</t>
+  </si>
+  <si>
+    <t>@buzzfeedbrasil para um banheiro de lugar que recebe milhares de pessoas por dia, tá até muito bom. amo o metropolitan ❤️</t>
+  </si>
+  <si>
+    <t>@vinicius04__ eu só quero o meu loki 🤗</t>
+  </si>
+  <si>
+    <t>qual seu top 5 da marvel?
+1- homem aranha
+2- viúva negra
+3- wanda
+4- capitão américa 
+5- loki https://t.co/5cunsxxyh0</t>
+  </si>
+  <si>
+    <t>acho q nada doi mais nesse jogo do que ver meus bichinhos envelhecerem o loki ta com o pelo branco 😔😔😔</t>
+  </si>
+  <si>
+    <t>@v4ntegomez bom dia</t>
+  </si>
+  <si>
+    <t>santos vai cair meu peru vem com essas ideia de loki não, vai torcer pros galinha</t>
+  </si>
+  <si>
+    <t>@epicgreys pra mim,foi uma tremenda desculpa pra matar o loki</t>
+  </si>
+  <si>
+    <t>loki season 1. 
+⭐️⭐️⭐️½
+eu achei que essa seria minha série fave da marvel (por motivos óbvios) e eu obviamente amei o desenvolvimento do loki, seu relacionamento com o mobius e como eles introduziram o multiverso, mas achei que poderiam ter utilizado melhor as variantes. https://t.co/dlfdmhrqzf</t>
+  </si>
+  <si>
+    <t>e vamos de ver a série do loki</t>
+  </si>
+  <si>
+    <t>ontem eu tava praticando mas n ficou muito bom
+era pra ser o loki e a lena https://t.co/hc7mdr1sb3</t>
+  </si>
+  <si>
+    <t>gente, a sylvie e o loki não são a mesma pessoa!! imagina que vcs encontrem uma &amp;gt;versão&amp;lt; de vcs na rua? considerariam como alguém igual mesmo que não tenha vivido a sua vida, mesmo que não tenha sido criada do mesmo jeito...? é a mesma coisa com eles. eles são lokis! só!</t>
+  </si>
+  <si>
+    <t>@meupai_eadory @sylvielaufeydit @bracinhodeferro aé ela tem um bb com o loki</t>
+  </si>
+  <si>
+    <t>@stonyxthings se fazer um desses do loki da 2 segs no maximo</t>
+  </si>
+  <si>
+    <t>@lcm12422226 não curto o steve tanto assi 
+claro q não, eu não sou filha de odin 
+o loki é meu namorado.</t>
+  </si>
+  <si>
+    <t>se o loki tiver uma filha com ele mesmo vai ter mais uma variante dele mesmo e assim infinitamente sem sair do lugar https://t.co/br3lq9krdg</t>
+  </si>
+  <si>
+    <t>@loudnoise__fc @loki_trem @bakzinfx7 @loud_thurzin888 @bakzera ué fofa, a lbr da noise vale né? conta né? 🤭🤭🤭</t>
+  </si>
+  <si>
+    <t>sigam o @portalswbrasil, lá vocês encontram todas as novidades sobre a saga star wars!!! https://t.co/2iakqfumjq</t>
+  </si>
+  <si>
+    <t>ou alguém de cabelo preto pra ser o loki e eu a sylvie 🥺</t>
+  </si>
+  <si>
+    <t>@rsrssep @loki_trem o yt ta bugado se pa, tô estranhando ta com 70k só, geralmente é mais de 150k</t>
+  </si>
+  <si>
+    <t>@hobitsv eu tbm véi....</t>
+  </si>
+  <si>
+    <t>@cartumante primeiramente não vamos usar termos pejorativos um pro outro pra não deixar de ser uma conversa, segundo que sim eu ja vi um gigante, se chama robert wadlow, terceiro que ela é uma deusa nordica amante de loki, como uma nordica pode ser negra se todo o panteão de deuses é branco?</t>
+  </si>
+  <si>
+    <t>@hiddlesloversbz tem q ser mt burro pra achar q foi incesto kkkkkkkk mano ali é loki e loki, ele só é narcisista e deixam bem claro na série q é esquisito ele gostar de uma versão dele mesmo https://t.co/xu1prwlwnc</t>
+  </si>
+  <si>
+    <t>@apollozin333 @loki_trem @fandomfx @yurixl15 @daaygamer @cacauzinha_ff vcs são tipo vovôs do tt, não pode ver alguém fazendo zueira</t>
+  </si>
+  <si>
+    <t>pra mim foi 2 pq sou mt parecida com os dois sim e foda-se eu ganhei mt, imagina ser parecida com o loki e a black widow https://t.co/x6ztnod7dg https://t.co/lx5unovho4</t>
+  </si>
+  <si>
+    <t>@hcneyhyvck oi chris, tudo bom?</t>
+  </si>
+  <si>
+    <t>ey comprei uma blusa do loki eu dise isso aqui?</t>
+  </si>
+  <si>
+    <t>@ar0dasi_ já comprei meu chifre de sylvie/loki</t>
+  </si>
+  <si>
+    <t>igualzinha a loki meu deus eu to chorando de rir que fofura https://t.co/8g0hxg79bq</t>
+  </si>
+  <si>
+    <t>agora vou só escrever o turno do loki pra ir assistir o ep 4 de see.</t>
+  </si>
+  <si>
+    <t>@melhornao777 @loki_trem @bakzinfx7 @loud_thurzin888 @bakzera me mostra o do teu time que ta jogando tudo, que pegaram os melhores da atual dizendo que ia parar o cenário e que até agr só ganharam um x4 e uma lbr kkkkkkkkkkkkklll</t>
+  </si>
+  <si>
+    <t>sinceramente se vcs acham que o loki ia ver a morte da mãe dele e ouvir que tudo aquilo era sua culpa, e mesmo assim ia continuar no mesmo caminho eu recomendo vocês assistirem a série e o filme direito</t>
+  </si>
+  <si>
+    <t>@yuri_0_porteiro @loki_cb ainda bem q nao tenho seu zap</t>
+  </si>
+  <si>
+    <t>loki eh lindo comendo</t>
+  </si>
+  <si>
+    <t>@wizwarsd fodase o loki</t>
+  </si>
+  <si>
+    <t>meus irmãos discutindo se o loki é “menina” ou “menino” fez meu dia kkkkkk</t>
+  </si>
+  <si>
+    <t>bah um loki tentou vender uma casa alugada pro meu tio kkkkkkkkkkkkkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>estou triste apenas uma hq loki agente de asgard me faria feliz https://t.co/pysu7tj36y</t>
+  </si>
+  <si>
+    <t>@deckwxrren o loki e a sylvie me lembra wandavision falando do navio de teseus (acho que é sem h) e eu ainda acho que é o mesmo barco</t>
+  </si>
+  <si>
+    <t>@andremenino01 @rsrssep sim , percebi isso</t>
+  </si>
+  <si>
+    <t>neste perfil não aceitamos haters da sakura,hinata,sasuke,konan,mikasa,hange,obito,loki,tom hiddleston e kamaitachi
+quem fica falando mal deles é sujeito a pauladas</t>
+  </si>
+  <si>
+    <t>mano eu tava com mta preguiça de qualquer conteúdo de super herói dps de vingadores ultimato, mas aí eu vi loki e achei daora pra caralho quero season 2 hoje</t>
+  </si>
+  <si>
+    <t>que loki feio kkkkkkk https://t.co/sldr1wfhsa</t>
+  </si>
+  <si>
+    <t>@cyborgcl @kauaoz como eu poderia nao amar o loki??😩💪🏻 https://t.co/w4j8wre6ql</t>
+  </si>
+  <si>
+    <t>o loki é uma variant 😂😂 e ele faz questão de trajar um terninho tipicamente casual escrito em suas costas..olha só: "variant" 😂🤣🤦🏽‍♂️ fala sério essa já foi demais por hj</t>
+  </si>
+  <si>
+    <t>*sylvie e loki sentados em um banco*
+ravonna: ué pq vcs parecem tão tristes?
+loki: senta no banco que a gente te conta 
+*ravonna senta no banco*
+sylvie: a tinta do banco não secou ainda
+ravonna:</t>
+  </si>
+  <si>
+    <t>@loki_bra talvez a sophia di martino também.
+e precisa para efeitos especiais</t>
+  </si>
+  <si>
+    <t>@loki_bra se não for pra alguma categoria relacionada a vfx eu paro de acreditar no amor</t>
+  </si>
+  <si>
+    <t>@01felipemenezes @pnettobh @olhardigital exato... se pegar as origens apenas da mitologia nórdica já tem muita coisa adaptada. as vezes "tentam" corrigir (tipo o loki como gênero fluido) e se torna um "mar de hate" (muito provavelmente intencional... pinkmoney tá aí para isso).</t>
+  </si>
+  <si>
+    <t>@srbigodin @procurabitucas não...sobre loki. gravamos assim que a série acabou</t>
+  </si>
+  <si>
+    <t>puta que pariu como a marvel ama matar o loki</t>
+  </si>
+  <si>
+    <t>@pombodopru @samuelmenor14 @rafaelfmsilva @peterjordan100 msm se o q eu tivesse falado do multiverso sem aberto no templo do kang tiver errado, o homem aranha longe de casa ocorre meses após o end game e loki ocorre ao mesmo tempo q end game</t>
+  </si>
+  <si>
+    <t>@mountdiaz eu queria mt que o meu desse loki aaaa</t>
+  </si>
+  <si>
+    <t>quem foi o burro psicopata sem cérebro idiota cabeça de vento lesado que disse que o loki e a sylvie são irmãos?</t>
+  </si>
+  <si>
+    <t>@isseizenho kskssjdkdknem sei da onde tirei romeu mas veio do fundo da minha mente sem nada kakaksk então o loki não era o loki... era a loki sksksjajsjskdjx eu pensava que era macho, mano parecia muito macho aaaa eu fiquei assim 🤡🤡🤡</t>
+  </si>
+  <si>
+    <t>@jetblackstark você e o tony eu e o loki</t>
+  </si>
+  <si>
+    <t>@i2louisz nossa mas eu só li saiu a segunda temporada de loki quase que eu morri aqui agr kkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@20bluebutterfly @jeangrangerw os caras comentando as fotos da sylvie/sophia dizendo que o loki "macetava" é hilário.</t>
+  </si>
+  <si>
+    <t>sera se o loki coelho desmaiaria com a sylvie coelha... https://t.co/7ld8btw7wk</t>
+  </si>
+  <si>
+    <t>acabei the office agr vo ver loki antes do volta as aulas minha vida eh tao triste</t>
+  </si>
+  <si>
+    <t>@lucasipl183 @cartumante loki filho do kratos com uma giganta ✅
+magni e modi morrerem antes do ragnarok ✅
+god of war ter mudado desde sempre tanto a mitologia nórdica quanto a grega o tempo todo por ser uma história fictícia totalmente sem compromisso com a mitologia original ✅
+uma jotun negra ❌😡😖</t>
+  </si>
+  <si>
+    <t>@loud_cauan1 rir cptrem</t>
+  </si>
+  <si>
+    <t>@yoonpoemz sou eu é?</t>
+  </si>
+  <si>
+    <t>@emandycat é normal gostar mais do loki dq do thor ? kakakakakaka</t>
+  </si>
+  <si>
+    <t>mds eu quase so o loki que isso https://t.co/roe6bmranv</t>
+  </si>
+  <si>
+    <t>eu ainda fico puta em como o loki foi tão burro em infinity war porque ele ter tentado matar o thanos daquele jeito não condiz com o personagem dele eu estava tão em negação que fiz uma teoria de que ele estava fingindo a sua mortr de novo que nem ele fez em dark world</t>
+  </si>
+  <si>
+    <t>imagina ser assim.
+de acordo com @collider, jonathan majors, o nosso kang, a marvel estava de olho nele desde antes de 'loki'.
+"é parecido com conseguir um papel em uma escola de teatro. você não faz testes para papéis. se eles quisessem você, você seria aproveitado." https://t.co/aybt8kyukg</t>
+  </si>
+  <si>
+    <t>@i4hlland pode sim</t>
+  </si>
+  <si>
+    <t>@loki_bra por isso que eu assisto com fone de ouvido nem no celular. hahahahaha hahahahaha</t>
+  </si>
+  <si>
+    <t>@sashckerman mudou a personalidade do loki de 2012, o nosso loki que morreu por thanos era bonzinho</t>
+  </si>
+  <si>
+    <t>"eu estava aqui o tempo todo só vc nao viu"  loki de orv assim pra mim</t>
+  </si>
+  <si>
+    <t>@loki_bra eu não sei as categorias, mas alguma coisa relacionada as músicas, a sophia ou sylvie...
+ou o tom como melhor protagonista 
+(ai sou péssima pra isso)</t>
+  </si>
+  <si>
+    <t>hoje vou começar loki e continuar ratched ✅</t>
+  </si>
+  <si>
+    <t>tenho que assistir the 100, sex education, the originals, lúcifer, loki, wanda vision, eu nunca 
+sério vou colapsar não tenho tempo afff vou ter que abandonar a escola</t>
+  </si>
+  <si>
+    <t>tô quase acabando os filmes do mu e vou tentar acabar loki antes das férias acabarem</t>
+  </si>
+  <si>
+    <t>@arthiddleston 85% loki mds e a terapia como vai</t>
+  </si>
+  <si>
+    <t>nada me tira da cabeça que edenilson e patrick são como loki na mitologia nórdica: o filho de gigantes tramava contra os aesir e às vezes salvava a pele de thor e odin.
+fazem um mal pro clube com essa preguiça de jogar reativamente mas metem uns gols pra ajudar</t>
+  </si>
+  <si>
+    <t>eu to muoto fekzu 
+eu assisti loki e chegou a parte do bjo serio to muito feliz tipo demais demais demais
+eu dancei, surtei, pulei e corri pela casa toda, nao to brincando</t>
+  </si>
+  <si>
+    <t>@bieltrk_ @md7xzn @loki_trem @pain_krzn @cacauzinha_ff @fluxo_alemaze entt kkkk</t>
+  </si>
+  <si>
+    <t>@puddingarts kahsks mas ai a gente faz troca</t>
+  </si>
+  <si>
+    <t>@ellton777 eu sou o milior, se não pensamos assim, o cerumano, não temos ambiçaum, se tu não pensar que és o melior en sua profissaum, posso naum ser, mas naminia cabeça eu sou o melior.</t>
+  </si>
+  <si>
+    <t>nessa cena pensei que o loki ainda tava dentro de outra pessoa https://t.co/lyilbefeai</t>
+  </si>
+  <si>
+    <t>@loki_trem @melhornao777 @robertpdm @cebolafalpadol @cri4s_rs @bakzera @el_ruan77 concordo com tudo q vc disse, mais seu teclado tá meio estranho ai</t>
+  </si>
+  <si>
+    <t>@hyeonfv minha vó deu o nome de "menino" mas se eu conseguir pegar ele pra mim provavelmente vou mudar pra "loki"</t>
+  </si>
+  <si>
+    <t>o loki vai lutar contra o nikolas tesla *????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????????? https://t.co/vwkjulkui4</t>
+  </si>
+  <si>
+    <t>@lovavengers nesse filme todo mundo tá bonito misericórdia, foi o auge da beleza !!! principalmente de loki</t>
+  </si>
+  <si>
+    <t>@melhornao777 @loudnoise__fc @bakzinfx7 @loud_thurzin888 @bakzera caralho tu não tem que fazer não maluco</t>
+  </si>
+  <si>
+    <t>perdão por ser tão difícil https://t.co/dzre6u6tys</t>
+  </si>
+  <si>
+    <t>@loki_inluv nao muito, porém indo! e vc bea;</t>
+  </si>
+  <si>
+    <t>⠀
+⠀
+— aos aqui presente, quem se intitula deus da mentira, é você, e não eu, lhe garanto não ter visto tal livro loki. 
+revira os olhos prosseguindo com a análise.
+⠀ https://t.co/gnt8fu5eql</t>
+  </si>
+  <si>
+    <t>@fangirldoloki meu eu loki ta preocupado</t>
+  </si>
+  <si>
+    <t>@maxmrm_gameplay vi vídeos desse jogo e achei muito legal. @maxmrm_gameplay vc sabe quem fez esse jogo?</t>
+  </si>
+  <si>
+    <t>@i4hlland acho que é a última</t>
+  </si>
+  <si>
+    <t>@felipepaschoald como assim vc ainda n viu loki???? infelizmente vou ter que t cancela</t>
+  </si>
+  <si>
+    <t>fiquei bem próxima do loki né kkkkkk gente como assim? 😂😂 https://t.co/kszvxuhzpc</t>
+  </si>
+  <si>
+    <t>@loudnoise__fc @loki_trem @bakzinfx7 @loud_thurzin888 @bakzera kkkkkkkkkkkkk falou não, mas pode fingir que pra vergonha ser menor. pra botar otário em seu devido lugar, a gente usa até licença poética 💜</t>
+  </si>
+  <si>
+    <t>@manoguuk @loki_inluv aqui mô</t>
+  </si>
+  <si>
+    <t>@loki_inluv pode kkk</t>
+  </si>
+  <si>
+    <t>@pnettobh @olhardigital pra quem jogou ta ligado q vai puxar p outras mitologias como a egipcia e os produtores disseram q esse segundo jogo vai terminar essa fase nórdica. o nome dela é a da esposa de loki que é o atreus entao acho q as pistas foram claras.</t>
+  </si>
+  <si>
+    <t>@kittenfael mistura de loki e homem de ferro, faz sentido</t>
+  </si>
+  <si>
+    <t>@loki_bra adm meu coração partiu e voltou de volta</t>
+  </si>
+  <si>
+    <t>☞ nome: sylvie laufeydottir
+☞ codinome de herói/ vilão/ anti herói: lady loki
+☞ idade: +1000
+☞ user/@syllaufey
+☞ universo: marvel mcu
+☞ imagem do shape e comic: https://t.co/arw2ipgpdc</t>
+  </si>
+  <si>
+    <t>@cmsofredor @universo_mcu @fernjr1 exceto se for o loki.</t>
+  </si>
+  <si>
+    <t>@md7xzn @bieltrk_ @loki_trem @pain_krzn @cacauzinha_ff @fluxo_alemaze tá dizendo né</t>
+  </si>
+  <si>
+    <t>deu todo mundo mas loki https://t.co/ez9uwtdimg https://t.co/06ytycezg0</t>
+  </si>
+  <si>
+    <t>acabei de achar essa foto de quando o loki era bebexinho e to passando mal https://t.co/umy2e3ibgg</t>
+  </si>
+  <si>
+    <t>@cohenw0rld eu não sei porque isso me passou a mesma vibe do loki tentando matar o thanos com uma faquinha e falhando miseravelmente</t>
+  </si>
+  <si>
+    <t>meus pais insistem em colocar loki pra dormir no meu quarto e ele fica de 5 em 5 minutos andando de um canto pro outro e dificultando meu sono 🤡</t>
+  </si>
+  <si>
+    <t>@gdkinben 1d, tom holland, o carinha que faz o loki, e mamãe taylor swift discordam ein iqhekwjwja</t>
+  </si>
+  <si>
+    <t>@adolesposting esse meme tem mais variantes do que o loki</t>
+  </si>
+  <si>
+    <t>rodei e rodei e no final tô indo ver ragnarok pela 739267° tudo pelo loki</t>
+  </si>
+  <si>
+    <t>@noellechaan kakajakakaka romeu é um nome muito bom tbm, loki por alguma razão me faz pensar que ele era bom de brigakkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>thor(que não é mais lola pq é macho rs) ganhou umx irmãx - loki
+🐰🐰❤️ https://t.co/mbjcijjert</t>
+  </si>
+  <si>
+    <t>se você é do fandom de:
+marvel
+stranger things
+zendaya
+outer banks
+the good place
+tom holland
+dua lipa
+b99
+loki
+comenta . pra eu te seguir
+e dá rt + fav pra chegar em mais mutuals</t>
+  </si>
+  <si>
+    <t>status de visita: 7 pessoas viram esse perfil https://t.co/xywrjvtj0m</t>
+  </si>
+  <si>
+    <t>@el_xaviercabron loki não</t>
+  </si>
+  <si>
+    <t>@uttsjongin @dropeboyy chamei vc pra ver loki vc não foi</t>
+  </si>
+  <si>
+    <t>@riseredmarie sylvie e loki são de realidades diferentes e não sabemos se ela tem um thor, nunca foi citado. se tiver, será da realidade dela (diferente da do loki) se não tiver, ainda sim será uma justificativa pq ela é diferente do loki. sacou?</t>
+  </si>
+  <si>
+    <t>nada a ver o augustinho seria o loki e a bebeu a silve https://t.co/qyk6g2omja</t>
+  </si>
+  <si>
+    <t>alguém q já assistiu loki pode me ajudar numa questão do meu trabalho pls</t>
+  </si>
+  <si>
+    <t>@loki_cb se eu pudesse dar sub p alguém então eu comprava sub pra mim na stream do jão ne kkkk</t>
+  </si>
+  <si>
+    <t>@benuron_ @joana_asf só se eu for o loki, a silvye irrita me</t>
+  </si>
+  <si>
+    <t>@rsrssep @lllrieieiei yt deve ta bugado mano , semana passada tava muito mais</t>
+  </si>
+  <si>
+    <t>@kimztkafcb erraram muito no início do mcu, desleixaram ele, a natasha e um pouco o fury
+mas veja loki, por enquanto a melhor das séries da marvel</t>
+  </si>
+  <si>
+    <t>@loudnoise__fc @loki_trem @bakzinfx7 @loud_thurzin888 @bakzera cansei de te humilhar, tenho mais o que fazer, essa foi a última, beijos! https://t.co/ptptl9fybo</t>
+  </si>
+  <si>
+    <t>capitão &amp;gt; shang chi &amp;gt; wandavision &amp;gt; viúva negra &amp;gt; what if &amp;gt; abismo &amp;gt; loki https://t.co/5kv5f3scfc</t>
+  </si>
+  <si>
+    <t>@loki_inluv bea tambem amo o loki</t>
+  </si>
+  <si>
+    <t>pronto coloquei o símbolo do loki</t>
+  </si>
+  <si>
+    <t>@loloromanoff cap e loki, mas eu me acho tão thor kkkkkk nunca sei responder essas coisa https://t.co/ttf4ex6jdh</t>
+  </si>
+  <si>
+    <t>gente eu tava no almoço aqui em familia e minha tia perguntou sobre os namoradinhos e eu tinha acabado de terminar com o meu aí comecei a chorar????? a família toda parou de comer e a campainha tocou, quando vi o kid loki entrando com um buquê de flores pedindo desculpa</t>
+  </si>
+  <si>
+    <t>eu falando sobre o loki de 2018 https://t.co/gup35ya1iy</t>
+  </si>
+  <si>
+    <t>ficar loki de biruta ca cunhada em j😬</t>
+  </si>
+  <si>
+    <t>assistindo aqui umas entrevistas do tom da época da série e ele fala todo animado sobre como ele tá feliz de colocar o loki numa perspectiva que ele nunca tinha estado antes, longe de asgard, sem a armadura dourada dele, longe de todo mundo que ele conhece e numa posição que (+)</t>
+  </si>
+  <si>
+    <t>@louiefots loki - meu comfort character fav
+dior - a marca</t>
+  </si>
+  <si>
+    <t>@rsrssep @loki_trem po fi, tu quer colocar fluxo e los q é duas org q tbm tem hype no ff contra a loud sozinha? ff tbm tá perdendo a graça, as views diminuiram bastantes e tenho certeza q vai diminuir um pouco mais</t>
+  </si>
+  <si>
+    <t>@notimefellow @sashckerman mas o loki do primeiro filme é bem parecido com esse loki e o loki de avengers tava sendo manipulado pelo cetro e o thanos.
+e o loki da religião nórdica tbm n é visto como vilão pelos outros deuses e nem pelo povo.</t>
+  </si>
+  <si>
+    <t>eu amo a sylvie e shippo sylki, mas meu sonho era que na série o loki fosse um cafajeste fuckboy que usasse todos para conseguir as coisas</t>
+  </si>
+  <si>
+    <t>pessoa desculpas pela pessoa que eu serei quando sair um arco com o loki</t>
+  </si>
+  <si>
+    <t>@douctorrfate loki como se ninguém fosse perceber https://t.co/hk55qjtogp</t>
+  </si>
+  <si>
+    <t>glr tô vendo loki hj pela primeira vez e tô gostando me deu mta pena da sylvie</t>
+  </si>
+  <si>
+    <t>@loki_trem quando los e fluxo joga, a média da live e de 140k e 150k as vezes da uma decaída pra 105k</t>
   </si>
 </sst>
 </file>
@@ -1737,13 +2727,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2083,19 +3076,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView tabSelected="1" topLeftCell="A598" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E295" sqref="E295"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="117.36328125" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="1" max="1" width="117.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2103,7 +3096,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2111,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2119,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2127,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2135,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2143,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2151,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2159,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2167,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2175,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2183,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2191,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2199,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2207,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2215,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2223,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2231,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2239,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2247,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2255,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2263,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2271,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2279,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2287,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2295,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2303,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2311,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2319,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2327,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2335,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2343,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2351,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2359,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2367,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2375,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2383,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2391,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2399,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2407,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2415,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2423,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2431,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2439,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2447,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2455,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2463,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2471,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2479,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2487,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2495,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2503,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2511,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2519,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2527,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2535,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2543,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2551,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2559,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2567,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2575,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2583,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2591,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2599,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2607,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2615,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2623,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2631,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2639,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2647,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2655,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2663,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2671,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2679,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2687,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2695,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2703,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2711,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2719,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2727,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2735,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2743,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2751,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2759,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2767,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2775,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2783,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2791,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2799,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2807,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2815,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2823,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2831,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2839,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2847,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2855,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2863,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2871,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2879,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -2887,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2895,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2903,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2911,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2919,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2927,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -2935,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -2943,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2951,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2959,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2967,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2975,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2983,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -2991,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -2999,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -3007,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -3015,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -3023,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -3031,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -3039,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -3047,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -3055,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -3063,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -3071,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -3079,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -3087,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -3095,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -3103,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -3111,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -3119,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -3127,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -3135,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -3143,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -3151,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -3159,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -3167,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -3175,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -3183,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -3191,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -3199,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -3207,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -3215,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -3223,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3231,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3239,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -3247,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -3255,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3263,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3271,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3279,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3287,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3295,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3303,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -3311,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -3319,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3327,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -3335,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -3343,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -3351,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -3359,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -3367,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -3375,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -3383,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -3391,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -3399,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -3407,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -3415,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -3423,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -3431,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -3439,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -3447,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -3455,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -3463,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -3471,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -3479,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -3487,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -3495,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -3503,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -3511,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -3519,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -3527,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -3535,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -3543,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -3551,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -3559,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -3567,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -3575,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -3583,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -3591,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -3599,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -3607,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -3615,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -3623,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -3631,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -3639,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -3647,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -3655,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -3663,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -3671,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -3679,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -3687,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -3695,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -3703,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -3711,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -3719,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -3727,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -3735,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -3743,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -3751,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -3759,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -3767,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -3775,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -3783,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -3791,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -3799,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -3807,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -3815,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -3823,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -3831,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -3839,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -3847,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -3855,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -3863,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -3871,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -3879,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -3887,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -3895,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -3903,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -3911,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -3919,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -3927,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -3935,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -3943,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -3951,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -3959,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -3967,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -3975,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -3983,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -3991,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -3999,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -4007,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -4015,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -4023,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -4031,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -4039,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -4047,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -4055,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -4063,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -4071,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -4079,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -4087,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -4095,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -4103,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -4111,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -4119,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -4127,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -4135,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -4143,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -4151,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -4159,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -4167,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -4175,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -4183,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -4191,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -4199,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -4207,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -4215,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -4223,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -4231,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -4239,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -4247,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -4255,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -4263,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -4271,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -4279,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -4287,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -4295,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -4303,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -4311,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -4319,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -4327,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -4335,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -4343,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -4351,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -4359,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -4367,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -4375,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -4383,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -4391,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -4399,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -4407,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -4415,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -4423,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -4431,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -4439,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -4447,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -4455,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -4463,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -4471,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -4479,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -4487,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -4495,12 +5488,2410 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
       <c r="B301">
         <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B302" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B303" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B304" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B305" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B306" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B307" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B308" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B309" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B310" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B311" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B312" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B313" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B314" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B315" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B316" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B317" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B318" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B319" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B320" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B321" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B322" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B323" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B324" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B325" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B326" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B327" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B328" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B329" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B330" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B331" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B332" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B333" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B334" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B335" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B336" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B337" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B338" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B339" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B340" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B341" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B342" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B343" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B344" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B345" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B346" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B347" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B348" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B349" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B350" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B351" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B352" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B353" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B354" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B355" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B356" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B357" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B358" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B359" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B360" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B361" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B362" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B363" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B364" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B365" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B366" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B367" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B368" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B369" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B370" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B371" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B372" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B373" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B374" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B375" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B376" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B377" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B378" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B379" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B380" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B381" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B382" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B383" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B384" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B385" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B386" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B387" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B388" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B389" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B390" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B391" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B392" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B393" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B394" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B395" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B396" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B397" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B398" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B399" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B400" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B401" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B402" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B403" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B404" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B405" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B406" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B407" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B408" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B409" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B410" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B411" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B412" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B413" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B414" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B415" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B416" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B417" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B418" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B419" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B420" s="3"/>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B421" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B422" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B423" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B424" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B425" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B426" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B427" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B428" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B429" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B430" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B431" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B432" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B433" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B434" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B435" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B436" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B437" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B438" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B439" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B440" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B441" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B442" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B443" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B444" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B445" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B446" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B447" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B448" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B449" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B450" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B451" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B452" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B453" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B454" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B455" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B456" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B457" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B458" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B459" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B460" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B461" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B462" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B463" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B464" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B465" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B466" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B467" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B468" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B469" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B470" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A471" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B471" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B472" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B473" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B474" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B475" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B476" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B477" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B478" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B479" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B480" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B481" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B482" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B483" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B484" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B485" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B486" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B487" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B488" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B489" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B490" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B491" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B492" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B493" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B494" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B495" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B496" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B497" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B498" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A499" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B499" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B500" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A501" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B501" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A502" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B502" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B503" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B504" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A505" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B505" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A506" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B506" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A507" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B507" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B508" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A509" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B509" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B510" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B511" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A512" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B512" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B513" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B514" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A515" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B515" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B516" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B517" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B518" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B519" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B520" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A521" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B521" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B522" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B523" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B524" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B525" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A526" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B526" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A527" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B527" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B528" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B529" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B530" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B531" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B532" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B533" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B534" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B535" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B536" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B537" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A538" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B538" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B539" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B540" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A541" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B541" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B542" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A543" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B543" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B544" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A545" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B545" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B546" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B547" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B548" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B549" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A550" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B550" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B551" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B552" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B553" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B554" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B555" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B556" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B557" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B558" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B559" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B560" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B561" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A562" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B562" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B563" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B564" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B565" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B566" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A567" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B567" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A568" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B568" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B569" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B570" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B571" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A572" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B572" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A573" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B573" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A574" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B574" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B575" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B576" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B577" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A578" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B578" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B579" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B580" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B581" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B582" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B583" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A584" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B584" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A585" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B585" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B586" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B587" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B588" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B589" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A590" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B590" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B591" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B592" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A593" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B593" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A594" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B594" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A595" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B595" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A596" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B596" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A597" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B597" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B598" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B599" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B600" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B601" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4512,17 +7903,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="167.26953125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="167.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
@@ -4530,7 +7921,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -4538,7 +7929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -4546,7 +7937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -4554,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>305</v>
       </c>
@@ -4562,7 +7953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -4570,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>307</v>
       </c>
@@ -4578,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -4586,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>309</v>
       </c>
@@ -4594,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>310</v>
       </c>
@@ -4602,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>311</v>
       </c>
@@ -4610,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>312</v>
       </c>
@@ -4618,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>313</v>
       </c>
@@ -4626,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>314</v>
       </c>
@@ -4634,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>315</v>
       </c>
@@ -4642,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -4650,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>317</v>
       </c>
@@ -4658,7 +8049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>318</v>
       </c>
@@ -4666,7 +8057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>319</v>
       </c>
@@ -4674,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>320</v>
       </c>
@@ -4682,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>321</v>
       </c>
@@ -4690,7 +8081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>322</v>
       </c>
@@ -4698,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>323</v>
       </c>
@@ -4706,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>324</v>
       </c>
@@ -4714,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>325</v>
       </c>
@@ -4722,7 +8113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>326</v>
       </c>
@@ -4730,7 +8121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>327</v>
       </c>
@@ -4738,7 +8129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>328</v>
       </c>
@@ -4746,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>329</v>
       </c>
@@ -4754,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>330</v>
       </c>
@@ -4762,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -4770,7 +8161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>332</v>
       </c>
@@ -4778,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>333</v>
       </c>
@@ -4786,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>334</v>
       </c>
@@ -4794,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>335</v>
       </c>
@@ -4802,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>336</v>
       </c>
@@ -4810,7 +8201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>337</v>
       </c>
@@ -4818,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>338</v>
       </c>
@@ -4826,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>339</v>
       </c>
@@ -4834,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -4842,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>341</v>
       </c>
@@ -4850,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>342</v>
       </c>
@@ -4858,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>343</v>
       </c>
@@ -4866,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>344</v>
       </c>
@@ -4874,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>345</v>
       </c>
@@ -4882,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>346</v>
       </c>
@@ -4890,7 +8281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>347</v>
       </c>
@@ -4898,7 +8289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>348</v>
       </c>
@@ -4906,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>349</v>
       </c>
@@ -4914,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>350</v>
       </c>
@@ -4922,7 +8313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>351</v>
       </c>
@@ -4930,7 +8321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>352</v>
       </c>
@@ -4938,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>353</v>
       </c>
@@ -4946,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>354</v>
       </c>
@@ -4954,7 +8345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -4962,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>356</v>
       </c>
@@ -4970,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>357</v>
       </c>
@@ -4978,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>358</v>
       </c>
@@ -4986,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>359</v>
       </c>
@@ -4994,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>360</v>
       </c>
@@ -5002,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>361</v>
       </c>
@@ -5010,7 +8401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>362</v>
       </c>
@@ -5018,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>363</v>
       </c>
@@ -5026,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>364</v>
       </c>
@@ -5034,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>365</v>
       </c>
@@ -5042,7 +8433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>366</v>
       </c>
@@ -5050,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>367</v>
       </c>
@@ -5058,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>368</v>
       </c>
@@ -5066,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>369</v>
       </c>
@@ -5074,7 +8465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>370</v>
       </c>
@@ -5082,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>371</v>
       </c>
@@ -5090,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>372</v>
       </c>
@@ -5098,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>373</v>
       </c>
@@ -5106,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -5114,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>375</v>
       </c>
@@ -5122,7 +8513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>376</v>
       </c>
@@ -5130,7 +8521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>377</v>
       </c>
@@ -5138,7 +8529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>378</v>
       </c>
@@ -5146,7 +8537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>379</v>
       </c>
@@ -5154,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>380</v>
       </c>
@@ -5162,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>381</v>
       </c>
@@ -5170,7 +8561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>382</v>
       </c>
@@ -5178,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>383</v>
       </c>
@@ -5186,7 +8577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>384</v>
       </c>
@@ -5194,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>385</v>
       </c>
@@ -5202,7 +8593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>386</v>
       </c>
@@ -5210,7 +8601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>387</v>
       </c>
@@ -5218,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>388</v>
       </c>
@@ -5226,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>389</v>
       </c>
@@ -5234,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>390</v>
       </c>
@@ -5242,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>391</v>
       </c>
@@ -5250,7 +8641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>392</v>
       </c>
@@ -5258,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>393</v>
       </c>
@@ -5266,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>394</v>
       </c>
@@ -5274,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>395</v>
       </c>
@@ -5282,7 +8673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>396</v>
       </c>
@@ -5290,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>397</v>
       </c>
@@ -5298,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>398</v>
       </c>
@@ -5306,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>399</v>
       </c>
@@ -5314,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>400</v>
       </c>
@@ -5322,7 +8713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>401</v>
       </c>
@@ -5330,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>402</v>
       </c>
@@ -5338,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>403</v>
       </c>
@@ -5346,7 +8737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>404</v>
       </c>
@@ -5354,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>405</v>
       </c>
@@ -5362,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>406</v>
       </c>
@@ -5370,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>407</v>
       </c>
@@ -5378,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>408</v>
       </c>
@@ -5386,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>409</v>
       </c>
@@ -5394,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>410</v>
       </c>
@@ -5402,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>411</v>
       </c>
@@ -5410,7 +8801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>412</v>
       </c>
@@ -5418,7 +8809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>413</v>
       </c>
@@ -5426,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>414</v>
       </c>
@@ -5434,7 +8825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>415</v>
       </c>
@@ -5442,7 +8833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>416</v>
       </c>
@@ -5450,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>417</v>
       </c>
@@ -5458,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>418</v>
       </c>
@@ -5466,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>419</v>
       </c>
@@ -5474,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>420</v>
       </c>
@@ -5482,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>421</v>
       </c>
@@ -5490,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>422</v>
       </c>
@@ -5498,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>423</v>
       </c>
@@ -5506,7 +8897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>424</v>
       </c>
@@ -5514,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>425</v>
       </c>
@@ -5522,7 +8913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>426</v>
       </c>
@@ -5530,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>427</v>
       </c>
@@ -5538,7 +8929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>428</v>
       </c>
@@ -5546,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>429</v>
       </c>
@@ -5554,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>430</v>
       </c>
@@ -5562,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>431</v>
       </c>
@@ -5570,7 +8961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>432</v>
       </c>
@@ -5578,7 +8969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>433</v>
       </c>
@@ -5586,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>434</v>
       </c>
@@ -5594,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>435</v>
       </c>
@@ -5602,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>436</v>
       </c>
@@ -5610,7 +9001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>437</v>
       </c>
@@ -5618,7 +9009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>438</v>
       </c>
@@ -5626,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>439</v>
       </c>
@@ -5634,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>440</v>
       </c>
@@ -5642,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>441</v>
       </c>
@@ -5650,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>442</v>
       </c>
@@ -5658,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>443</v>
       </c>
@@ -5666,7 +9057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>444</v>
       </c>
@@ -5674,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>445</v>
       </c>
@@ -5682,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>446</v>
       </c>
@@ -5690,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>447</v>
       </c>
@@ -5698,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>448</v>
       </c>
@@ -5706,7 +9097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>449</v>
       </c>
@@ -5714,7 +9105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>450</v>
       </c>
@@ -5722,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>451</v>
       </c>
@@ -5730,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>452</v>
       </c>
@@ -5738,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>453</v>
       </c>
@@ -5746,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>454</v>
       </c>
@@ -5754,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>455</v>
       </c>
@@ -5762,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>456</v>
       </c>
@@ -5770,7 +9161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>457</v>
       </c>
@@ -5778,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>458</v>
       </c>
@@ -5786,7 +9177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>459</v>
       </c>
@@ -5794,7 +9185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>460</v>
       </c>
@@ -5802,7 +9193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>461</v>
       </c>
@@ -5810,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>462</v>
       </c>
@@ -5818,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>463</v>
       </c>
@@ -5826,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>464</v>
       </c>
@@ -5834,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>465</v>
       </c>
@@ -5842,7 +9233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>466</v>
       </c>
@@ -5850,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>467</v>
       </c>
@@ -5858,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>468</v>
       </c>
@@ -5866,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>469</v>
       </c>
@@ -5874,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>470</v>
       </c>
@@ -5882,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>471</v>
       </c>
@@ -5890,7 +9281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>472</v>
       </c>
@@ -5898,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>473</v>
       </c>
@@ -5906,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>474</v>
       </c>
@@ -5914,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>475</v>
       </c>
@@ -5922,7 +9313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>476</v>
       </c>
@@ -5930,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>477</v>
       </c>
@@ -5938,7 +9329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>478</v>
       </c>
@@ -5946,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>479</v>
       </c>
@@ -5954,7 +9345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>480</v>
       </c>
@@ -5962,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>481</v>
       </c>
@@ -5970,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>482</v>
       </c>
@@ -5978,7 +9369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>483</v>
       </c>
@@ -5986,7 +9377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>484</v>
       </c>
@@ -5994,7 +9385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>485</v>
       </c>
@@ -6002,7 +9393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>486</v>
       </c>
@@ -6010,7 +9401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>487</v>
       </c>
@@ -6018,7 +9409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>488</v>
       </c>
@@ -6026,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>489</v>
       </c>
@@ -6034,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>490</v>
       </c>
@@ -6042,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>491</v>
       </c>
@@ -6050,7 +9441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>492</v>
       </c>
@@ -6058,7 +9449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>493</v>
       </c>
@@ -6066,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>494</v>
       </c>
@@ -6074,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>495</v>
       </c>
@@ -6082,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>496</v>
       </c>
@@ -6090,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>497</v>
       </c>
@@ -6098,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>498</v>
       </c>
@@ -6106,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>499</v>
       </c>
@@ -6114,7 +9505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>500</v>
       </c>
@@ -6122,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>501</v>
       </c>

--- a/assets/loki.xlsx
+++ b/assets/loki.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\CIÊNCIA_DE_DADOS\Classificador_de_sentimentos\Repositorio_certo\Classificador_automatico_de_sentimentos\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Matérias 2 semestre\cdados\P1\Classificador_automatico_de_sentimentos\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F8A363-7577-46E7-BEE5-2DD0DD541C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9812D5C1-3033-455B-9D09-6B93FFE66D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3078,17 +3078,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A598" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E295" sqref="E295"/>
+    <sheetView tabSelected="1" topLeftCell="A451" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="117.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="117.453125" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>503</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>504</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>505</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>506</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>507</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>508</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>509</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>510</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>511</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>512</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>513</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>514</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>515</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>516</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>517</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>518</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>519</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>520</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>521</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>522</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>523</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>524</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>525</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>526</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>527</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>528</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>529</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>530</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>531</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>532</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>533</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>534</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>535</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>536</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>537</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>538</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>539</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>540</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>541</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>542</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>543</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>544</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>545</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>546</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>547</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>548</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>549</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>550</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>551</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>552</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>553</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>554</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>555</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>556</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>557</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>558</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>559</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>560</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>561</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>562</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>563</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>564</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>565</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>566</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>567</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>568</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>569</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>570</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>571</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>572</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>573</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>574</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>575</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>576</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>577</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>578</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>579</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>580</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>581</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>582</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>583</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>584</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>585</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>586</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>587</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>588</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>589</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>590</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>591</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>592</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>593</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>594</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>595</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>596</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>597</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>598</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>599</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>600</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>601</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>602</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>603</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>604</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>605</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>606</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>607</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>608</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>609</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>610</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>611</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>612</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>613</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>614</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>615</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>616</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>617</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>618</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>619</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>620</v>
       </c>
@@ -6440,13 +6440,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B420" s="3"/>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B420" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>622</v>
       </c>
@@ -6454,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>623</v>
       </c>
@@ -6462,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>624</v>
       </c>
@@ -6470,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>625</v>
       </c>
@@ -6478,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>626</v>
       </c>
@@ -6486,7 +6488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>627</v>
       </c>
@@ -6494,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>628</v>
       </c>
@@ -6502,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>629</v>
       </c>
@@ -6510,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>630</v>
       </c>
@@ -6518,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>631</v>
       </c>
@@ -6526,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>632</v>
       </c>
@@ -6534,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>633</v>
       </c>
@@ -6542,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>634</v>
       </c>
@@ -6550,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>635</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>636</v>
       </c>
@@ -6566,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
         <v>637</v>
       </c>
@@ -6574,7 +6576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>638</v>
       </c>
@@ -6582,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
         <v>639</v>
       </c>
@@ -6590,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
         <v>640</v>
       </c>
@@ -6598,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
         <v>641</v>
       </c>
@@ -6606,7 +6608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
         <v>642</v>
       </c>
@@ -6614,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>643</v>
       </c>
@@ -6622,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
         <v>644</v>
       </c>
@@ -6630,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>645</v>
       </c>
@@ -6638,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>646</v>
       </c>
@@ -6646,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
         <v>647</v>
       </c>
@@ -6654,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
         <v>648</v>
       </c>
@@ -6662,7 +6664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
         <v>649</v>
       </c>
@@ -6670,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
         <v>650</v>
       </c>
@@ -6678,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
         <v>651</v>
       </c>
@@ -6686,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="2" t="s">
         <v>652</v>
       </c>
@@ -6694,7 +6696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
         <v>653</v>
       </c>
@@ -6702,7 +6704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
         <v>654</v>
       </c>
@@ -6710,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
         <v>655</v>
       </c>
@@ -6718,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
         <v>656</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
         <v>657</v>
       </c>
@@ -6734,7 +6736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
         <v>658</v>
       </c>
@@ -6742,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
         <v>659</v>
       </c>
@@ -6750,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
         <v>660</v>
       </c>
@@ -6758,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
         <v>661</v>
       </c>
@@ -6766,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
         <v>662</v>
       </c>
@@ -6774,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
         <v>663</v>
       </c>
@@ -6782,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="2" t="s">
         <v>664</v>
       </c>
@@ -6790,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A464" s="2" t="s">
         <v>665</v>
       </c>
@@ -6798,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="2" t="s">
         <v>666</v>
       </c>
@@ -6806,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
         <v>667</v>
       </c>
@@ -6814,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
         <v>668</v>
       </c>
@@ -6822,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
         <v>669</v>
       </c>
@@ -6830,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
         <v>670</v>
       </c>
@@ -6838,7 +6840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
         <v>671</v>
       </c>
@@ -6846,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
         <v>672</v>
       </c>
@@ -6854,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
         <v>673</v>
       </c>
@@ -6862,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
         <v>674</v>
       </c>
@@ -6870,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
         <v>675</v>
       </c>
@@ -6878,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
         <v>676</v>
       </c>
@@ -6886,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
         <v>677</v>
       </c>
@@ -6894,7 +6896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
         <v>678</v>
       </c>
@@ -6902,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
         <v>679</v>
       </c>
@@ -6910,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="2" t="s">
         <v>680</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="2" t="s">
         <v>681</v>
       </c>
@@ -6926,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="2" t="s">
         <v>682</v>
       </c>
@@ -6934,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
         <v>683</v>
       </c>
@@ -6942,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
         <v>684</v>
       </c>
@@ -6950,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
         <v>685</v>
       </c>
@@ -6958,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
         <v>686</v>
       </c>
@@ -6966,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
         <v>687</v>
       </c>
@@ -6974,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
         <v>688</v>
       </c>
@@ -6982,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
         <v>689</v>
       </c>
@@ -6990,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
         <v>690</v>
       </c>
@@ -6998,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
         <v>691</v>
       </c>
@@ -7006,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>692</v>
       </c>
@@ -7014,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>693</v>
       </c>
@@ -7022,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>694</v>
       </c>
@@ -7030,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>695</v>
       </c>
@@ -7038,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
         <v>696</v>
       </c>
@@ -7046,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
         <v>697</v>
       </c>
@@ -7054,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
         <v>698</v>
       </c>
@@ -7062,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
         <v>699</v>
       </c>
@@ -7070,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A499" s="2" t="s">
         <v>700</v>
       </c>
@@ -7078,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" s="2" t="s">
         <v>701</v>
       </c>
@@ -7086,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A501" s="2" t="s">
         <v>702</v>
       </c>
@@ -7094,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
         <v>703</v>
       </c>
@@ -7102,7 +7104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
         <v>704</v>
       </c>
@@ -7110,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" s="2" t="s">
         <v>705</v>
       </c>
@@ -7118,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A505" s="2" t="s">
         <v>706</v>
       </c>
@@ -7126,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A506" s="2" t="s">
         <v>707</v>
       </c>
@@ -7134,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A507" s="2" t="s">
         <v>708</v>
       </c>
@@ -7142,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" s="2" t="s">
         <v>709</v>
       </c>
@@ -7150,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A509" s="2" t="s">
         <v>710</v>
       </c>
@@ -7158,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" s="2" t="s">
         <v>711</v>
       </c>
@@ -7166,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" s="2" t="s">
         <v>712</v>
       </c>
@@ -7174,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A512" s="2" t="s">
         <v>713</v>
       </c>
@@ -7182,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" s="2" t="s">
         <v>714</v>
       </c>
@@ -7190,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" s="2" t="s">
         <v>715</v>
       </c>
@@ -7198,7 +7200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A515" s="2" t="s">
         <v>716</v>
       </c>
@@ -7206,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" s="2" t="s">
         <v>717</v>
       </c>
@@ -7214,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" s="2" t="s">
         <v>718</v>
       </c>
@@ -7222,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" s="2" t="s">
         <v>719</v>
       </c>
@@ -7230,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" s="2" t="s">
         <v>720</v>
       </c>
@@ -7238,7 +7240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" s="2" t="s">
         <v>721</v>
       </c>
@@ -7246,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A521" s="2" t="s">
         <v>722</v>
       </c>
@@ -7254,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" s="2" t="s">
         <v>723</v>
       </c>
@@ -7262,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" s="2" t="s">
         <v>724</v>
       </c>
@@ -7270,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" s="2" t="s">
         <v>725</v>
       </c>
@@ -7278,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" s="2" t="s">
         <v>726</v>
       </c>
@@ -7286,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A526" s="2" t="s">
         <v>727</v>
       </c>
@@ -7294,7 +7296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A527" s="2" t="s">
         <v>728</v>
       </c>
@@ -7302,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
         <v>729</v>
       </c>
@@ -7310,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" s="2" t="s">
         <v>730</v>
       </c>
@@ -7318,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" s="2" t="s">
         <v>731</v>
       </c>
@@ -7326,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" s="2" t="s">
         <v>732</v>
       </c>
@@ -7334,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A532" s="2" t="s">
         <v>733</v>
       </c>
@@ -7342,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" s="2" t="s">
         <v>734</v>
       </c>
@@ -7350,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A534" s="2" t="s">
         <v>735</v>
       </c>
@@ -7358,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" s="2" t="s">
         <v>736</v>
       </c>
@@ -7366,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" s="2" t="s">
         <v>737</v>
       </c>
@@ -7374,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A537" s="2" t="s">
         <v>738</v>
       </c>
@@ -7382,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A538" s="2" t="s">
         <v>739</v>
       </c>
@@ -7390,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
         <v>740</v>
       </c>
@@ -7398,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" s="2" t="s">
         <v>741</v>
       </c>
@@ -7406,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A541" s="2" t="s">
         <v>742</v>
       </c>
@@ -7414,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" s="2" t="s">
         <v>743</v>
       </c>
@@ -7422,7 +7424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A543" s="2" t="s">
         <v>744</v>
       </c>
@@ -7430,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" s="2" t="s">
         <v>745</v>
       </c>
@@ -7438,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A545" s="2" t="s">
         <v>746</v>
       </c>
@@ -7446,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" s="2" t="s">
         <v>747</v>
       </c>
@@ -7454,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" s="2" t="s">
         <v>748</v>
       </c>
@@ -7462,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" s="2" t="s">
         <v>749</v>
       </c>
@@ -7470,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" s="2" t="s">
         <v>750</v>
       </c>
@@ -7478,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A550" s="2" t="s">
         <v>751</v>
       </c>
@@ -7486,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" s="2" t="s">
         <v>752</v>
       </c>
@@ -7494,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" s="2" t="s">
         <v>753</v>
       </c>
@@ -7502,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A553" s="2" t="s">
         <v>754</v>
       </c>
@@ -7510,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" s="2" t="s">
         <v>755</v>
       </c>
@@ -7518,7 +7520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A555" s="2" t="s">
         <v>756</v>
       </c>
@@ -7526,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A556" s="2" t="s">
         <v>757</v>
       </c>
@@ -7534,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" s="2" t="s">
         <v>758</v>
       </c>
@@ -7542,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" s="2" t="s">
         <v>759</v>
       </c>
@@ -7550,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A559" s="2" t="s">
         <v>760</v>
       </c>
@@ -7558,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" s="2" t="s">
         <v>761</v>
       </c>
@@ -7566,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" s="2" t="s">
         <v>762</v>
       </c>
@@ -7574,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A562" s="2" t="s">
         <v>763</v>
       </c>
@@ -7582,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" s="2" t="s">
         <v>764</v>
       </c>
@@ -7590,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" s="2" t="s">
         <v>765</v>
       </c>
@@ -7598,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" s="2" t="s">
         <v>766</v>
       </c>
@@ -7606,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" s="2" t="s">
         <v>767</v>
       </c>
@@ -7614,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A567" s="2" t="s">
         <v>768</v>
       </c>
@@ -7622,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A568" s="2" t="s">
         <v>769</v>
       </c>
@@ -7630,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" s="2" t="s">
         <v>770</v>
       </c>
@@ -7638,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" s="2" t="s">
         <v>771</v>
       </c>
@@ -7646,7 +7648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" s="2" t="s">
         <v>772</v>
       </c>
@@ -7654,7 +7656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A572" s="2" t="s">
         <v>773</v>
       </c>
@@ -7662,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A573" s="2" t="s">
         <v>774</v>
       </c>
@@ -7670,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A574" s="2" t="s">
         <v>775</v>
       </c>
@@ -7678,7 +7680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" s="2" t="s">
         <v>776</v>
       </c>
@@ -7686,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" s="2" t="s">
         <v>777</v>
       </c>
@@ -7694,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
         <v>778</v>
       </c>
@@ -7702,7 +7704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A578" s="2" t="s">
         <v>779</v>
       </c>
@@ -7710,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" s="2" t="s">
         <v>780</v>
       </c>
@@ -7718,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
         <v>781</v>
       </c>
@@ -7726,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
         <v>782</v>
       </c>
@@ -7734,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" s="2" t="s">
         <v>783</v>
       </c>
@@ -7742,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" s="2" t="s">
         <v>784</v>
       </c>
@@ -7750,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
         <v>785</v>
       </c>
@@ -7758,7 +7760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
         <v>786</v>
       </c>
@@ -7766,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
         <v>787</v>
       </c>
@@ -7774,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
         <v>788</v>
       </c>
@@ -7782,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
         <v>789</v>
       </c>
@@ -7790,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
         <v>790</v>
       </c>
@@ -7798,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
         <v>791</v>
       </c>
@@ -7806,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
         <v>792</v>
       </c>
@@ -7814,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
         <v>793</v>
       </c>
@@ -7822,7 +7824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
         <v>794</v>
       </c>
@@ -7830,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
         <v>795</v>
       </c>
@@ -7838,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
         <v>796</v>
       </c>
@@ -7846,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
         <v>797</v>
       </c>
@@ -7854,7 +7856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
         <v>798</v>
       </c>
@@ -7862,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
         <v>799</v>
       </c>
@@ -7870,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
         <v>800</v>
       </c>
@@ -7878,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
         <v>801</v>
       </c>
@@ -7886,7 +7888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
         <v>802</v>
       </c>
@@ -7907,13 +7909,13 @@
       <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="167.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="167.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
@@ -7921,7 +7923,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -7929,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -7937,7 +7939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -7945,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>305</v>
       </c>
@@ -7953,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -7961,7 +7963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>307</v>
       </c>
@@ -7969,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -7977,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>309</v>
       </c>
@@ -7985,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>310</v>
       </c>
@@ -7993,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>311</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>312</v>
       </c>
@@ -8009,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>313</v>
       </c>
@@ -8017,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>314</v>
       </c>
@@ -8025,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>315</v>
       </c>
@@ -8033,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -8041,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>317</v>
       </c>
@@ -8049,7 +8051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>318</v>
       </c>
@@ -8057,7 +8059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>319</v>
       </c>
@@ -8065,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>320</v>
       </c>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>321</v>
       </c>
@@ -8081,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>322</v>
       </c>
@@ -8089,7 +8091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>323</v>
       </c>
@@ -8097,7 +8099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>324</v>
       </c>
@@ -8105,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>325</v>
       </c>
@@ -8113,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>326</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>327</v>
       </c>
@@ -8129,7 +8131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>328</v>
       </c>
@@ -8137,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>329</v>
       </c>
@@ -8145,7 +8147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>330</v>
       </c>
@@ -8153,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -8161,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>332</v>
       </c>
@@ -8169,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>333</v>
       </c>
@@ -8177,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>334</v>
       </c>
@@ -8185,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>335</v>
       </c>
@@ -8193,7 +8195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>336</v>
       </c>
@@ -8201,7 +8203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>337</v>
       </c>
@@ -8209,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>338</v>
       </c>
@@ -8217,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>339</v>
       </c>
@@ -8225,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -8233,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>341</v>
       </c>
@@ -8241,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>342</v>
       </c>
@@ -8249,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>343</v>
       </c>
@@ -8257,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>344</v>
       </c>
@@ -8265,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>345</v>
       </c>
@@ -8273,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>346</v>
       </c>
@@ -8281,7 +8283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>347</v>
       </c>
@@ -8289,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>348</v>
       </c>
@@ -8297,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>349</v>
       </c>
@@ -8305,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>350</v>
       </c>
@@ -8313,7 +8315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>351</v>
       </c>
@@ -8321,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>352</v>
       </c>
@@ -8329,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>353</v>
       </c>
@@ -8337,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>354</v>
       </c>
@@ -8345,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -8353,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>356</v>
       </c>
@@ -8361,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>357</v>
       </c>
@@ -8369,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>358</v>
       </c>
@@ -8377,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>359</v>
       </c>
@@ -8385,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>360</v>
       </c>
@@ -8393,7 +8395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>361</v>
       </c>
@@ -8401,7 +8403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>362</v>
       </c>
@@ -8409,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>363</v>
       </c>
@@ -8417,7 +8419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>364</v>
       </c>
@@ -8425,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>365</v>
       </c>
@@ -8433,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>366</v>
       </c>
@@ -8441,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>367</v>
       </c>
@@ -8449,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>368</v>
       </c>
@@ -8457,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>369</v>
       </c>
@@ -8465,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>370</v>
       </c>
@@ -8473,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>371</v>
       </c>
@@ -8481,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>372</v>
       </c>
@@ -8489,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>373</v>
       </c>
@@ -8497,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -8505,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>375</v>
       </c>
@@ -8513,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>376</v>
       </c>
@@ -8521,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>377</v>
       </c>
@@ -8529,7 +8531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>378</v>
       </c>
@@ -8537,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>379</v>
       </c>
@@ -8545,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>380</v>
       </c>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>381</v>
       </c>
@@ -8561,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>382</v>
       </c>
@@ -8569,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>383</v>
       </c>
@@ -8577,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>384</v>
       </c>
@@ -8585,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>385</v>
       </c>
@@ -8593,7 +8595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>386</v>
       </c>
@@ -8601,7 +8603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>387</v>
       </c>
@@ -8609,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>388</v>
       </c>
@@ -8617,7 +8619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>389</v>
       </c>
@@ -8625,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>390</v>
       </c>
@@ -8633,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>391</v>
       </c>
@@ -8641,7 +8643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>392</v>
       </c>
@@ -8649,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>393</v>
       </c>
@@ -8657,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>394</v>
       </c>
@@ -8665,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>395</v>
       </c>
@@ -8673,7 +8675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>396</v>
       </c>
@@ -8681,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>397</v>
       </c>
@@ -8689,7 +8691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>398</v>
       </c>
@@ -8697,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>399</v>
       </c>
@@ -8705,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>400</v>
       </c>
@@ -8713,7 +8715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>401</v>
       </c>
@@ -8721,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>402</v>
       </c>
@@ -8729,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>403</v>
       </c>
@@ -8737,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>404</v>
       </c>
@@ -8745,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>405</v>
       </c>
@@ -8753,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>406</v>
       </c>
@@ -8761,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>407</v>
       </c>
@@ -8769,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>408</v>
       </c>
@@ -8777,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>409</v>
       </c>
@@ -8785,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>410</v>
       </c>
@@ -8793,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>411</v>
       </c>
@@ -8801,7 +8803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>412</v>
       </c>
@@ -8809,7 +8811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>413</v>
       </c>
@@ -8817,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>414</v>
       </c>
@@ -8825,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>415</v>
       </c>
@@ -8833,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>416</v>
       </c>
@@ -8841,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>417</v>
       </c>
@@ -8849,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>418</v>
       </c>
@@ -8857,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>419</v>
       </c>
@@ -8865,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>420</v>
       </c>
@@ -8873,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>421</v>
       </c>
@@ -8881,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>422</v>
       </c>
@@ -8889,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>423</v>
       </c>
@@ -8897,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>424</v>
       </c>
@@ -8905,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>425</v>
       </c>
@@ -8913,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>426</v>
       </c>
@@ -8921,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>427</v>
       </c>
@@ -8929,7 +8931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>428</v>
       </c>
@@ -8937,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>429</v>
       </c>
@@ -8945,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>430</v>
       </c>
@@ -8953,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>431</v>
       </c>
@@ -8961,7 +8963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>432</v>
       </c>
@@ -8969,7 +8971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>433</v>
       </c>
@@ -8977,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>434</v>
       </c>
@@ -8985,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>435</v>
       </c>
@@ -8993,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>436</v>
       </c>
@@ -9001,7 +9003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>437</v>
       </c>
@@ -9009,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>438</v>
       </c>
@@ -9017,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>439</v>
       </c>
@@ -9025,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>440</v>
       </c>
@@ -9033,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>441</v>
       </c>
@@ -9041,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>442</v>
       </c>
@@ -9049,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>443</v>
       </c>
@@ -9057,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>444</v>
       </c>
@@ -9065,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>445</v>
       </c>
@@ -9073,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>446</v>
       </c>
@@ -9081,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>447</v>
       </c>
@@ -9089,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>448</v>
       </c>
@@ -9097,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>449</v>
       </c>
@@ -9105,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>450</v>
       </c>
@@ -9113,7 +9115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>451</v>
       </c>
@@ -9121,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>452</v>
       </c>
@@ -9129,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>453</v>
       </c>
@@ -9137,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>454</v>
       </c>
@@ -9145,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>455</v>
       </c>
@@ -9153,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>456</v>
       </c>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>457</v>
       </c>
@@ -9169,7 +9171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>458</v>
       </c>
@@ -9177,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>459</v>
       </c>
@@ -9185,7 +9187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>460</v>
       </c>
@@ -9193,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>461</v>
       </c>
@@ -9201,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>462</v>
       </c>
@@ -9209,7 +9211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>463</v>
       </c>
@@ -9217,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>464</v>
       </c>
@@ -9225,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>465</v>
       </c>
@@ -9233,7 +9235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>466</v>
       </c>
@@ -9241,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>467</v>
       </c>
@@ -9249,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>468</v>
       </c>
@@ -9257,7 +9259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>469</v>
       </c>
@@ -9265,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>470</v>
       </c>
@@ -9273,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>471</v>
       </c>
@@ -9281,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>472</v>
       </c>
@@ -9289,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>473</v>
       </c>
@@ -9297,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>474</v>
       </c>
@@ -9305,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>475</v>
       </c>
@@ -9313,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>476</v>
       </c>
@@ -9321,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>477</v>
       </c>
@@ -9329,7 +9331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>478</v>
       </c>
@@ -9337,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>479</v>
       </c>
@@ -9345,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>480</v>
       </c>
@@ -9353,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>481</v>
       </c>
@@ -9361,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>482</v>
       </c>
@@ -9369,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>483</v>
       </c>
@@ -9377,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>484</v>
       </c>
@@ -9385,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>485</v>
       </c>
@@ -9393,7 +9395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>486</v>
       </c>
@@ -9401,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>487</v>
       </c>
@@ -9409,7 +9411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>488</v>
       </c>
@@ -9417,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>489</v>
       </c>
@@ -9425,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>490</v>
       </c>
@@ -9433,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>491</v>
       </c>
@@ -9441,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>492</v>
       </c>
@@ -9449,7 +9451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>493</v>
       </c>
@@ -9457,7 +9459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>494</v>
       </c>
@@ -9465,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>495</v>
       </c>
@@ -9473,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>496</v>
       </c>
@@ -9481,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>497</v>
       </c>
@@ -9489,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>498</v>
       </c>
@@ -9497,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>499</v>
       </c>
@@ -9505,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>500</v>
       </c>
@@ -9513,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>501</v>
       </c>

--- a/assets/loki.xlsx
+++ b/assets/loki.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Matérias 2 semestre\cdados\P1\Classificador_automatico_de_sentimentos\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\CIÊNCIA_DE_DADOS\Classificador_de_sentimentos\Espero_que_seja_o_ultimo\Classificador_automatico_de_sentimentos\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9812D5C1-3033-455B-9D09-6B93FFE66D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4B23A5-5A82-418C-B7FB-AC13DC392333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3078,17 +3078,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A563" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="117.453125" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="1" max="1" width="117.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3104,775 +3104,775 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="45" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="65" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="81" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -3880,1127 +3880,1127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+    <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+    <row r="143" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+    <row r="156" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+    <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+    <row r="162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+    <row r="170" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+    <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+    <row r="174" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+    <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+    <row r="179" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+    <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+    <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+    <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+    <row r="201" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
+    <row r="203" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B207">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B209">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B211">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B213">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
+    <row r="217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
+    <row r="218" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
+    <row r="220" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B220">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B221">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
+    <row r="222" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B224">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B225">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
+    <row r="226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B226">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
+    <row r="227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B229">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B231">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B232">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B235">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B238">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -5008,495 +5008,495 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
+    <row r="243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B245">
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
+    <row r="247" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B250">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B252">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
+    <row r="253" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B253">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B254">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B256">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B257">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B258">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B259">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B260">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
+    <row r="261" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
+    <row r="262" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
+    <row r="263" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B264">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B267">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B270">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B272">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
+    <row r="273" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B273">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B274">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B275">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
+    <row r="276" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B276">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B279">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B280">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B282">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B283">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
+    <row r="285" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B286">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B290">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B291">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B293">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
+    <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B294">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B298">
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B299">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B300">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
       <c r="B301">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>503</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>504</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>505</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>506</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>507</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>508</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>509</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>510</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>511</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>512</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>513</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>514</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>515</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>516</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>517</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>518</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>519</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>520</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>521</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>522</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>523</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>524</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>525</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>526</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>527</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>528</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>529</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>530</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>531</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>532</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>533</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>534</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>535</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>536</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>537</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>538</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>539</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>540</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>541</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>542</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>543</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>544</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>545</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>546</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>547</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>548</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>549</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>550</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>551</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>552</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>553</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>554</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>555</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>556</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>557</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>558</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>559</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>560</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>561</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>562</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>563</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>564</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>565</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>566</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>567</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>568</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>569</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>570</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>571</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>572</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>573</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>574</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>575</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>576</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>577</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>578</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>579</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>580</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>581</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>582</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>583</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>584</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>585</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>586</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>587</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>588</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>589</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>590</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>591</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>592</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>593</v>
       </c>
@@ -6224,23 +6224,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>594</v>
       </c>
       <c r="B393" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>595</v>
       </c>
       <c r="B394" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>596</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>597</v>
       </c>
@@ -6256,15 +6256,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>598</v>
       </c>
       <c r="B397" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>599</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>600</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>601</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>602</v>
       </c>
@@ -6296,15 +6296,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>603</v>
       </c>
       <c r="B402" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>604</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>605</v>
       </c>
@@ -6320,15 +6320,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>606</v>
       </c>
       <c r="B405" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>607</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>608</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>609</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>610</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>611</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>612</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>613</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>614</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>615</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>616</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>617</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>618</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>619</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>620</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>621</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>622</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>623</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>624</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>625</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>626</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>627</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>628</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>629</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>630</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>631</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>632</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>633</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>634</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>635</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>636</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>637</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>638</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>639</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>640</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>641</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>642</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>643</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>644</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>645</v>
       </c>
@@ -6640,15 +6640,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>646</v>
       </c>
       <c r="B445" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>647</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>648</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>649</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>650</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>651</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>652</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>653</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>654</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>655</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>656</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>657</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>658</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>659</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>660</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>661</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>662</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>663</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>664</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>665</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>666</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>667</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>668</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>669</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>670</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>671</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>672</v>
       </c>
@@ -6856,15 +6856,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>673</v>
       </c>
       <c r="B472" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>674</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>675</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>676</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>677</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>678</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>679</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>680</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>681</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>682</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>683</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>684</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>685</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>686</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>687</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>688</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>689</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>690</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>691</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>692</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>693</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>694</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>695</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>696</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>697</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>698</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>699</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>700</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>701</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>702</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>703</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>704</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>705</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>706</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>707</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>708</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>709</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>710</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>711</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>712</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>713</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>714</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>715</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>716</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>717</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>718</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>719</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>720</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>721</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>722</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>723</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>724</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>725</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>726</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>727</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>728</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>729</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>730</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>731</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>732</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>733</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>734</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>735</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>736</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>737</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>738</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>739</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>740</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>741</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>742</v>
       </c>
@@ -7416,15 +7416,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>743</v>
       </c>
       <c r="B542" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>744</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>745</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>746</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>747</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>748</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>749</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>750</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>751</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>752</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>753</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>754</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>755</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>756</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>757</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>758</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>759</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>760</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>761</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>762</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>763</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>764</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>765</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>766</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>767</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>768</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>769</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>770</v>
       </c>
@@ -7640,15 +7640,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>771</v>
       </c>
       <c r="B570" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>772</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>773</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>774</v>
       </c>
@@ -7672,15 +7672,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>775</v>
       </c>
       <c r="B574" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>776</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>777</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>778</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>779</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>780</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>781</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>782</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>783</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>784</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>785</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>786</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>787</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>788</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>789</v>
       </c>
@@ -7792,15 +7792,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>790</v>
       </c>
       <c r="B589" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>791</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>792</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>793</v>
       </c>
@@ -7824,15 +7824,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>794</v>
       </c>
       <c r="B593" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>795</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>796</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>797</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>798</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>799</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>800</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>801</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>802</v>
       </c>
@@ -7909,13 +7909,13 @@
       <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="167.26953125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="167.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>305</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>307</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>309</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>310</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>311</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>312</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>313</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>314</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>315</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>317</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>318</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>319</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>320</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>321</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>322</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>323</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>324</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>325</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>326</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>327</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>328</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>329</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>330</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>332</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>333</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>334</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>335</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>336</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>337</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>338</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>339</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>341</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>342</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>343</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>344</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>345</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>346</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>347</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>348</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>349</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>350</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>351</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>352</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>353</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>354</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>356</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>357</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>358</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>359</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>360</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>361</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>362</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>363</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>364</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>365</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>366</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>367</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>368</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>369</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>370</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>371</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>372</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>373</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>375</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>376</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>377</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>378</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>379</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>380</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>381</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>382</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>383</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>384</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>385</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>386</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>387</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>388</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>389</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>390</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>391</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>392</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>393</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>394</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>395</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>396</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>397</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>398</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>399</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>400</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>401</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>402</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>403</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>404</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>405</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>406</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>407</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>408</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>409</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>410</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>411</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>412</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>413</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>414</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>415</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>416</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>417</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>418</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>419</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>420</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>421</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>422</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>423</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>424</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>425</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>426</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>427</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>428</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>429</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>430</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>431</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>432</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>433</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>434</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>435</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>436</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>437</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>438</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>439</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>440</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>441</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>442</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>443</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>444</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>445</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>446</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>447</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>448</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>449</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>450</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>451</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>452</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>453</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>454</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>455</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>456</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>457</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>458</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>459</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>460</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>461</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>462</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>463</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>464</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>465</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>466</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>467</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>468</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>469</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>470</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>471</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>472</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>473</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>474</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>475</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>476</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>477</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>478</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>479</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>480</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>481</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>482</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>483</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>484</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>485</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>486</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>487</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>488</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>489</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>490</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>491</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>492</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>493</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>494</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>495</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>496</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>497</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>498</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>499</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>500</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>501</v>
       </c>

--- a/assets/loki.xlsx
+++ b/assets/loki.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\CIÊNCIA_DE_DADOS\Classificador_de_sentimentos\Espero_que_seja_o_ultimo\Classificador_automatico_de_sentimentos\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Matérias 2 semestre\cdados\P1\Classificador_automatico_de_sentimentos\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4B23A5-5A82-418C-B7FB-AC13DC392333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6279433-0E03-4290-9DFA-A19FBF5B2A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3078,17 +3078,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A563" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A579" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B602" sqref="B602"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="117.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="117.453125" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3416,15 +3416,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -3824,15 +3824,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -3904,15 +3904,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -4040,15 +4040,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -4616,15 +4616,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
@@ -4768,15 +4768,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
@@ -5104,15 +5104,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
@@ -5424,15 +5424,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>503</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>504</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>505</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>506</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>507</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>508</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>509</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>510</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>511</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>512</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>513</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>514</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>515</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>516</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>517</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>518</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>519</v>
       </c>
@@ -5632,15 +5632,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>520</v>
       </c>
       <c r="B319" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>521</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>522</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>523</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>524</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>525</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>526</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>527</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>528</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>529</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>530</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>531</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>532</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>533</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>534</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>535</v>
       </c>
@@ -5760,15 +5760,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>536</v>
       </c>
       <c r="B335" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>537</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>538</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>539</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>540</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>541</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>542</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>543</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>544</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>545</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>546</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>547</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>548</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>549</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>550</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>551</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>552</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>553</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>554</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>555</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>556</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>557</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>558</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>559</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>560</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>561</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>562</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>563</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>564</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>565</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>566</v>
       </c>
@@ -6008,15 +6008,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>567</v>
       </c>
       <c r="B366" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>568</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>569</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>570</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>571</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>572</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>573</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>574</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>575</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>576</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>577</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>578</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>579</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>580</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>581</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>582</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>583</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>584</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>585</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>586</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>587</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>588</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>589</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>590</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>591</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>592</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>593</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>594</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>595</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>596</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>597</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>598</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>599</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>600</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>601</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>602</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>603</v>
       </c>
@@ -6304,15 +6304,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>604</v>
       </c>
       <c r="B403" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>605</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>606</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>607</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>608</v>
       </c>
@@ -6344,15 +6344,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>609</v>
       </c>
       <c r="B408" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>610</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>611</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>612</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>613</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>614</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>615</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>616</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>617</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>618</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>619</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>620</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>621</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>622</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>623</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>624</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>625</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>626</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>627</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>628</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>629</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>630</v>
       </c>
@@ -6520,15 +6520,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>631</v>
       </c>
       <c r="B430" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>632</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>633</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>634</v>
       </c>
@@ -6552,15 +6552,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>635</v>
       </c>
       <c r="B434" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>636</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
         <v>637</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>638</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
         <v>639</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
         <v>640</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
         <v>641</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
         <v>642</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>643</v>
       </c>
@@ -6624,15 +6624,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
         <v>644</v>
       </c>
       <c r="B443" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>645</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>646</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
         <v>647</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
         <v>648</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
         <v>649</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
         <v>650</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
         <v>651</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="2" t="s">
         <v>652</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
         <v>653</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
         <v>654</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
         <v>655</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
         <v>656</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
         <v>657</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
         <v>658</v>
       </c>
@@ -6744,15 +6744,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
         <v>659</v>
       </c>
       <c r="B458" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
         <v>660</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
         <v>661</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
         <v>662</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
         <v>663</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="2" t="s">
         <v>664</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A464" s="2" t="s">
         <v>665</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="2" t="s">
         <v>666</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
         <v>667</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
         <v>668</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
         <v>669</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
         <v>670</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
         <v>671</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
         <v>672</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
         <v>673</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
         <v>674</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
         <v>675</v>
       </c>
@@ -6880,23 +6880,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
         <v>676</v>
       </c>
       <c r="B475" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
         <v>677</v>
       </c>
       <c r="B476" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
         <v>678</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
         <v>679</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="2" t="s">
         <v>680</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="2" t="s">
         <v>681</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="2" t="s">
         <v>682</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
         <v>683</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
         <v>684</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
         <v>685</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
         <v>686</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
         <v>687</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
         <v>688</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
         <v>689</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
         <v>690</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
         <v>691</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>692</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>693</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>694</v>
       </c>
@@ -7032,15 +7032,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>695</v>
       </c>
       <c r="B494" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
         <v>696</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
         <v>697</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
         <v>698</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
         <v>699</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A499" s="2" t="s">
         <v>700</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" s="2" t="s">
         <v>701</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A501" s="2" t="s">
         <v>702</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
         <v>703</v>
       </c>
@@ -7104,15 +7104,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
         <v>704</v>
       </c>
       <c r="B503" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" s="2" t="s">
         <v>705</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A505" s="2" t="s">
         <v>706</v>
       </c>
@@ -7128,15 +7128,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A506" s="2" t="s">
         <v>707</v>
       </c>
       <c r="B506" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A507" s="2" t="s">
         <v>708</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" s="2" t="s">
         <v>709</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A509" s="2" t="s">
         <v>710</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" s="2" t="s">
         <v>711</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" s="2" t="s">
         <v>712</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A512" s="2" t="s">
         <v>713</v>
       </c>
@@ -7184,15 +7184,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" s="2" t="s">
         <v>714</v>
       </c>
       <c r="B513" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" s="2" t="s">
         <v>715</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A515" s="2" t="s">
         <v>716</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" s="2" t="s">
         <v>717</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" s="2" t="s">
         <v>718</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" s="2" t="s">
         <v>719</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" s="2" t="s">
         <v>720</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" s="2" t="s">
         <v>721</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A521" s="2" t="s">
         <v>722</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" s="2" t="s">
         <v>723</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" s="2" t="s">
         <v>724</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" s="2" t="s">
         <v>725</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" s="2" t="s">
         <v>726</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A526" s="2" t="s">
         <v>727</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A527" s="2" t="s">
         <v>728</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
         <v>729</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" s="2" t="s">
         <v>730</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" s="2" t="s">
         <v>731</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" s="2" t="s">
         <v>732</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A532" s="2" t="s">
         <v>733</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" s="2" t="s">
         <v>734</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A534" s="2" t="s">
         <v>735</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" s="2" t="s">
         <v>736</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" s="2" t="s">
         <v>737</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A537" s="2" t="s">
         <v>738</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A538" s="2" t="s">
         <v>739</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
         <v>740</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" s="2" t="s">
         <v>741</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A541" s="2" t="s">
         <v>742</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" s="2" t="s">
         <v>743</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A543" s="2" t="s">
         <v>744</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" s="2" t="s">
         <v>745</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A545" s="2" t="s">
         <v>746</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" s="2" t="s">
         <v>747</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" s="2" t="s">
         <v>748</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" s="2" t="s">
         <v>749</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" s="2" t="s">
         <v>750</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A550" s="2" t="s">
         <v>751</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" s="2" t="s">
         <v>752</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" s="2" t="s">
         <v>753</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A553" s="2" t="s">
         <v>754</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" s="2" t="s">
         <v>755</v>
       </c>
@@ -7520,15 +7520,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A555" s="2" t="s">
         <v>756</v>
       </c>
       <c r="B555" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A556" s="2" t="s">
         <v>757</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" s="2" t="s">
         <v>758</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" s="2" t="s">
         <v>759</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A559" s="2" t="s">
         <v>760</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" s="2" t="s">
         <v>761</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" s="2" t="s">
         <v>762</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A562" s="2" t="s">
         <v>763</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" s="2" t="s">
         <v>764</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" s="2" t="s">
         <v>765</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" s="2" t="s">
         <v>766</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" s="2" t="s">
         <v>767</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A567" s="2" t="s">
         <v>768</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A568" s="2" t="s">
         <v>769</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" s="2" t="s">
         <v>770</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" s="2" t="s">
         <v>771</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" s="2" t="s">
         <v>772</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A572" s="2" t="s">
         <v>773</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A573" s="2" t="s">
         <v>774</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A574" s="2" t="s">
         <v>775</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" s="2" t="s">
         <v>776</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" s="2" t="s">
         <v>777</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
         <v>778</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A578" s="2" t="s">
         <v>779</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" s="2" t="s">
         <v>780</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
         <v>781</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
         <v>782</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" s="2" t="s">
         <v>783</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" s="2" t="s">
         <v>784</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
         <v>785</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
         <v>786</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
         <v>787</v>
       </c>
@@ -7776,15 +7776,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
         <v>788</v>
       </c>
       <c r="B587" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
         <v>789</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
         <v>790</v>
       </c>
@@ -7800,15 +7800,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
         <v>791</v>
       </c>
       <c r="B590" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
         <v>792</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
         <v>793</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
         <v>794</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
         <v>795</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
         <v>796</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
         <v>797</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
         <v>798</v>
       </c>
@@ -7864,15 +7864,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B598" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
         <v>800</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
         <v>801</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
         <v>802</v>
       </c>
@@ -7905,17 +7905,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="167.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="167.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -7939,15 +7939,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>304</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>305</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -7963,23 +7963,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>307</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>308</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>309</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>310</v>
       </c>
@@ -7995,15 +7995,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>311</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>312</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>313</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>314</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>315</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>317</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>318</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>319</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>320</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>321</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>322</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>323</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>324</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>325</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>326</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>327</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>328</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>329</v>
       </c>
@@ -8147,15 +8147,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>330</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>332</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>333</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>334</v>
       </c>
@@ -8187,15 +8187,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>335</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>336</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>337</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>338</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>339</v>
       </c>
@@ -8227,15 +8227,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>340</v>
       </c>
       <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>341</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>342</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>343</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>344</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>345</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>346</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>347</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>348</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>349</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>350</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>351</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>352</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>353</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>354</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>356</v>
       </c>
@@ -8363,15 +8363,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>357</v>
       </c>
       <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>358</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>359</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>360</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>361</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>362</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>363</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>364</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>365</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>366</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>367</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>368</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>369</v>
       </c>
@@ -8467,23 +8467,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>370</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>371</v>
       </c>
       <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>372</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>373</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>375</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>376</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>377</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>378</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>379</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>380</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>381</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>382</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>383</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>384</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>385</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>386</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>387</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>388</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>389</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>390</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>391</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>392</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>393</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>394</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>395</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>396</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>397</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>398</v>
       </c>
@@ -8699,15 +8699,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>399</v>
       </c>
       <c r="B99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>400</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>401</v>
       </c>
@@ -8723,15 +8723,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>402</v>
       </c>
       <c r="B102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>403</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>404</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>405</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>406</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>407</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>408</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>409</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>410</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>411</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>412</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>413</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>414</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>415</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>416</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>417</v>
       </c>
@@ -8851,15 +8851,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>418</v>
       </c>
       <c r="B118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>419</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>420</v>
       </c>
@@ -8875,15 +8875,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>421</v>
       </c>
       <c r="B121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>422</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>423</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>424</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>425</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>426</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>427</v>
       </c>
@@ -8931,15 +8931,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>428</v>
       </c>
       <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>429</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>430</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>431</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>432</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>433</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>434</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>435</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>436</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>437</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>438</v>
       </c>
@@ -9019,15 +9019,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>439</v>
       </c>
       <c r="B139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>440</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>441</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>442</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>443</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>444</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>445</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>446</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>447</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>448</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>449</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>450</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>451</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>452</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>453</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>454</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>455</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>456</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>457</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>458</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>459</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>460</v>
       </c>
@@ -9195,15 +9195,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>461</v>
       </c>
       <c r="B161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>462</v>
       </c>
@@ -9211,15 +9211,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>463</v>
       </c>
       <c r="B163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>464</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>465</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>466</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>467</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>468</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>469</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>470</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>471</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>472</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>473</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>474</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>475</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>476</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>477</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>478</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>479</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>480</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>481</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>482</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>483</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>484</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>485</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>486</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>487</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>488</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>489</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>490</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>491</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>492</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>493</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>494</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>495</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>496</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>497</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>498</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>499</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>500</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>501</v>
       </c>

--- a/assets/loki.xlsx
+++ b/assets/loki.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Matérias 2 semestre\cdados\P1\Classificador_automatico_de_sentimentos\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\CIÊNCIA_DE_DADOS\Classificador_de_sentimentos\Espero_que_seja_o_ultimo\Classificador_automatico_de_sentimentos-1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6279433-0E03-4290-9DFA-A19FBF5B2A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4F78E8-56DC-4B7A-A5EB-2DBF229B670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3078,17 +3078,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A579" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A573" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B602" sqref="B602"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="117.453125" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="1" max="1" width="117.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>503</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>504</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>505</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>506</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>507</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>508</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>509</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>510</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>511</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>512</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>513</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>514</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>515</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>516</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>517</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>518</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>519</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>520</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>521</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>522</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>523</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>524</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>525</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>526</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>527</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>528</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>529</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>530</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>531</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>532</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>533</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>534</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>535</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>536</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>537</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>538</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>539</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>540</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>541</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>542</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>543</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>544</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>545</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>546</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>547</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>548</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>549</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>550</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>551</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>552</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>553</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>554</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>555</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>556</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>557</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>558</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>559</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>560</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>561</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>562</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>563</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>564</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>565</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>566</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>567</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>568</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>569</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>570</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>571</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>572</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>573</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>574</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>575</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>576</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>577</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>578</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>579</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>580</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>581</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>582</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>583</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>584</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>585</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>586</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>587</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>588</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>589</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>590</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>591</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>592</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>593</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>594</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>595</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>596</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>597</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>598</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>599</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>600</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>601</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>602</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>603</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>604</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>605</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>606</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>607</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>608</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>609</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>610</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>611</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>612</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>613</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>614</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>615</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>616</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>617</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>618</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>619</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>620</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>621</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>622</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>623</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>624</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>625</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>626</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>627</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>628</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>629</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>630</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>631</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>632</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>633</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>634</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>635</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>636</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>637</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>638</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>639</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>640</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>641</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>642</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>643</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>644</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>645</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>646</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>647</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>648</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>649</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>650</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>651</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>652</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>653</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>654</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>655</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>656</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>657</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>658</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>659</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>660</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>661</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>662</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>663</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>664</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>665</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>666</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>667</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>668</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>669</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>670</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>671</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>672</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>673</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>674</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>675</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>676</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>677</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>678</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>679</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>680</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>681</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>682</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>683</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>684</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>685</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>686</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>687</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>688</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>689</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>690</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>691</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>692</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>693</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>694</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>695</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>696</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>697</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>698</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>699</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>700</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>701</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>702</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>703</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>704</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>705</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>706</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>707</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>708</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>709</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>710</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>711</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>712</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>713</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>714</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>715</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>716</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>717</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>718</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>719</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>720</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>721</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>722</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>723</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>724</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>725</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>726</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>727</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>728</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>729</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>730</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>731</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>732</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>733</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>734</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>735</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>736</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>737</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>738</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>739</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>740</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>741</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>742</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>743</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>744</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>745</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>746</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>747</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>748</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>749</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>750</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>751</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>752</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>753</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>754</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>755</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>756</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>757</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>758</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>759</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>760</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>761</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>762</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>763</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>764</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>765</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>766</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>767</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>768</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>769</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>770</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>771</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>772</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>773</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>774</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>775</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>776</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>777</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>778</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>779</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>780</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>781</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>782</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>783</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>784</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>785</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>786</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>787</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>788</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>789</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>790</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>791</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>792</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>793</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>794</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>795</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>796</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>797</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>798</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>799</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>800</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>801</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>802</v>
       </c>
@@ -7905,17 +7905,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="167.26953125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="233.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -7939,23 +7939,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>304</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>305</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>307</v>
       </c>
@@ -7971,15 +7971,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>309</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>310</v>
       </c>
@@ -7995,15 +7995,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>311</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>312</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>313</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>314</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>315</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -8043,15 +8043,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>317</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>318</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>319</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>320</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>321</v>
       </c>
@@ -8083,23 +8083,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>322</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>323</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>324</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>325</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>326</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>327</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>328</v>
       </c>
@@ -8139,15 +8139,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>329</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>330</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>332</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>333</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>334</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>335</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>336</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>337</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>338</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>339</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>341</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>342</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>343</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>344</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>345</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>346</v>
       </c>
@@ -8283,15 +8283,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>347</v>
       </c>
       <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>348</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>349</v>
       </c>
@@ -8307,15 +8307,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>350</v>
       </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>351</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>352</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>353</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>354</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>356</v>
       </c>
@@ -8363,15 +8363,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>357</v>
       </c>
       <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>358</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>359</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>360</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>361</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>362</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>363</v>
       </c>
@@ -8419,23 +8419,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>364</v>
       </c>
       <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>365</v>
       </c>
       <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>366</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>367</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>368</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>369</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>370</v>
       </c>
@@ -8475,15 +8475,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>371</v>
       </c>
       <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>372</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>373</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>375</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>376</v>
       </c>
@@ -8523,23 +8523,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>377</v>
       </c>
       <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>378</v>
       </c>
       <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>379</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>380</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>381</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>382</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>383</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>384</v>
       </c>
@@ -8587,23 +8587,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>385</v>
       </c>
       <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>386</v>
       </c>
       <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>387</v>
       </c>
@@ -8611,15 +8611,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>388</v>
       </c>
       <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>389</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>390</v>
       </c>
@@ -8635,15 +8635,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>391</v>
       </c>
       <c r="B91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>392</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>393</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>394</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>395</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>396</v>
       </c>
@@ -8683,15 +8683,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>397</v>
       </c>
       <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>398</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>399</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>400</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>401</v>
       </c>
@@ -8723,15 +8723,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>402</v>
       </c>
       <c r="B102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>403</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>404</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>405</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>406</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>407</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>408</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>409</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>410</v>
       </c>
@@ -8795,15 +8795,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>411</v>
       </c>
       <c r="B111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>412</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>413</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>414</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>415</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>416</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>417</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>418</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>419</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>420</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>421</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>422</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>423</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>424</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>425</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>426</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>427</v>
       </c>
@@ -8931,15 +8931,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>428</v>
       </c>
       <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>429</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>430</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>431</v>
       </c>
@@ -8963,15 +8963,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>432</v>
       </c>
       <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>433</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>434</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>435</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>436</v>
       </c>
@@ -9003,15 +9003,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>437</v>
       </c>
       <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>438</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>439</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>440</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>441</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>442</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>443</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>444</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>445</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>446</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>447</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>448</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>449</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>450</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>451</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>452</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>453</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>454</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>455</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>456</v>
       </c>
@@ -9163,15 +9163,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>457</v>
       </c>
       <c r="B157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>458</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>459</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>460</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>461</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>462</v>
       </c>
@@ -9211,15 +9211,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>463</v>
       </c>
       <c r="B163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>464</v>
       </c>
@@ -9227,15 +9227,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>465</v>
       </c>
       <c r="B165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>466</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>467</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>468</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>469</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>470</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>471</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>472</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>473</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>474</v>
       </c>
@@ -9307,15 +9307,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>475</v>
       </c>
       <c r="B175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>476</v>
       </c>
@@ -9323,15 +9323,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>477</v>
       </c>
       <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>478</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>479</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>480</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>481</v>
       </c>
@@ -9363,15 +9363,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>482</v>
       </c>
       <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>483</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>484</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>485</v>
       </c>
@@ -9395,15 +9395,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>486</v>
       </c>
       <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>487</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>488</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>489</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>490</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>491</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>492</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>493</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>494</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>495</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>496</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>497</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>498</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>499</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>500</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>501</v>
       </c>
